--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,723 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B119" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C119" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D119" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E119" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3333</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>23</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C120" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D120" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E120" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>23</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10</v>
+      </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B121" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C121" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D121" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E121" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F121" t="n">
+        <v>398</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>23</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C122" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D122" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E122" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F122" t="n">
+        <v>180</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>23</v>
+      </c>
+      <c r="J122" t="n">
+        <v>12</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B123" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C123" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D123" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E123" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F123" t="n">
+        <v>848</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>23</v>
+      </c>
+      <c r="J123" t="n">
+        <v>13</v>
+      </c>
+      <c r="K123" t="n">
+        <v>15</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C124" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D124" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E124" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F124" t="n">
+        <v>206</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>23</v>
+      </c>
+      <c r="J124" t="n">
+        <v>14</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="C125" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="D125" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="E125" t="n">
+        <v>41.11000061035156</v>
+      </c>
+      <c r="F125" t="n">
+        <v>51</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>23</v>
+      </c>
+      <c r="J125" t="n">
+        <v>15</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9598</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>24</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D127" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1669</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>24</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10</v>
+      </c>
+      <c r="K127" t="n">
+        <v>15</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E128" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1178</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>24</v>
+      </c>
+      <c r="J128" t="n">
+        <v>11</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C129" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D129" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E129" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F129" t="n">
+        <v>204</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>24</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C130" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D130" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F130" t="n">
+        <v>759</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>24</v>
+      </c>
+      <c r="J130" t="n">
+        <v>13</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C131" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D131" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4214</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>24</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="D132" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="E132" t="n">
+        <v>39.06000137329102</v>
+      </c>
+      <c r="F132" t="n">
+        <v>123</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>24</v>
+      </c>
+      <c r="J132" t="n">
+        <v>15</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6774,7 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6825,7 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6876,7 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6927,7 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6978,7 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7029,7 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7080,7 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7131,7 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7182,7 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7233,7 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7284,7 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7335,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7386,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7437,7 +7463,366 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C133" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E133" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F133" t="n">
+        <v>11848</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>27</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C134" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D134" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E134" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F134" t="n">
+        <v>69</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>27</v>
+      </c>
+      <c r="J134" t="n">
+        <v>10</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>5</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B135" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C135" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D135" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E135" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F135" t="n">
+        <v>217</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>27</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>5</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C136" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D136" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E136" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1174</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>27</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>5</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C137" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D137" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E137" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F137" t="n">
+        <v>41</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>27</v>
+      </c>
+      <c r="J137" t="n">
+        <v>13</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>5</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B138" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C138" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D138" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E138" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F138" t="n">
+        <v>352</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>27</v>
+      </c>
+      <c r="J138" t="n">
+        <v>14</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="C139" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="D139" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="E139" t="n">
+        <v>37.11000061035156</v>
+      </c>
+      <c r="F139" t="n">
+        <v>133</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>27</v>
+      </c>
+      <c r="J139" t="n">
+        <v>15</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q139"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7516,7 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7567,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7618,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7669,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7720,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7771,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7822,7 +7834,723 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C140" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D140" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E140" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F140" t="n">
+        <v>348</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>28</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C141" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E141" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F141" t="n">
+        <v>81</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>28</v>
+      </c>
+      <c r="J141" t="n">
+        <v>10</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B142" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C142" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D142" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E142" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F142" t="n">
+        <v>110</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>28</v>
+      </c>
+      <c r="J142" t="n">
+        <v>11</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C143" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D143" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E143" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F143" t="n">
+        <v>318</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>28</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C144" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D144" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E144" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F144" t="n">
+        <v>317</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>28</v>
+      </c>
+      <c r="J144" t="n">
+        <v>13</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C145" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D145" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E145" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F145" t="n">
+        <v>71</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>28</v>
+      </c>
+      <c r="J145" t="n">
+        <v>14</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="C146" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="D146" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="E146" t="n">
+        <v>35.2599983215332</v>
+      </c>
+      <c r="F146" t="n">
+        <v>41</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>28</v>
+      </c>
+      <c r="J146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1821</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>29</v>
+      </c>
+      <c r="J147" t="n">
+        <v>9</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>150</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>29</v>
+      </c>
+      <c r="J148" t="n">
+        <v>10</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>5</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B149" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>153</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>29</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>5</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>527</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>29</v>
+      </c>
+      <c r="J150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>387</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>29</v>
+      </c>
+      <c r="J151" t="n">
+        <v>13</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B152" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>29</v>
+      </c>
+      <c r="J152" t="n">
+        <v>14</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>29</v>
+      </c>
+      <c r="J153" t="n">
+        <v>15</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7887,7 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7938,7 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7989,7 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8040,7 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8091,7 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8142,7 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8193,7 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8244,7 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8295,7 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8346,7 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8397,7 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8448,7 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8499,7 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8550,7 +8576,723 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C154" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D154" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E154" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F154" t="n">
+        <v>136871</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>30</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>5</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C155" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D155" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E155" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2532</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>30</v>
+      </c>
+      <c r="J155" t="n">
+        <v>10</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>5</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B156" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C156" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D156" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E156" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2499</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>30</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C157" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D157" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E157" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>30</v>
+      </c>
+      <c r="J157" t="n">
+        <v>12</v>
+      </c>
+      <c r="K157" t="n">
+        <v>15</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>5</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C158" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D158" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E158" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F158" t="n">
+        <v>177</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>30</v>
+      </c>
+      <c r="J158" t="n">
+        <v>13</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C159" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D159" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E159" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1467</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>30</v>
+      </c>
+      <c r="J159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K159" t="n">
+        <v>15</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="C160" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="D160" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="E160" t="n">
+        <v>31.82999992370605</v>
+      </c>
+      <c r="F160" t="n">
+        <v>52</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>30</v>
+      </c>
+      <c r="J160" t="n">
+        <v>15</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>5</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C161" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10542</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>31</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9</v>
+      </c>
+      <c r="K161" t="n">
+        <v>15</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5891</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>31</v>
+      </c>
+      <c r="J162" t="n">
+        <v>10</v>
+      </c>
+      <c r="K162" t="n">
+        <v>15</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>5</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B163" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D163" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E163" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F163" t="n">
+        <v>731</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>31</v>
+      </c>
+      <c r="J163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>5</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D164" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E164" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F164" t="n">
+        <v>286</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>31</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>5</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C165" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D165" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E165" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F165" t="n">
+        <v>492</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>31</v>
+      </c>
+      <c r="J165" t="n">
+        <v>13</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>5</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B166" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D166" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E166" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F166" t="n">
+        <v>300</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>31</v>
+      </c>
+      <c r="J166" t="n">
+        <v>14</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>5</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="C167" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="D167" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="E167" t="n">
+        <v>30.23999977111816</v>
+      </c>
+      <c r="F167" t="n">
+        <v>316</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>31</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>5</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q167"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8629,7 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8680,7 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8731,7 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8782,7 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8833,7 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8884,7 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8935,7 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8986,7 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9037,7 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9088,7 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9139,7 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9190,7 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
-      <c r="Q165" t="inlineStr"/>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9241,7 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
-      <c r="Q166" t="inlineStr"/>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9292,7 +9318,774 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
-      <c r="Q167" t="inlineStr"/>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45689.63541666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="E168" t="n">
+        <v>28.72999954223633</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>15</v>
+      </c>
+      <c r="K168" t="n">
+        <v>15</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>5</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3214</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9</v>
+      </c>
+      <c r="K169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>6</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2787</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>10</v>
+      </c>
+      <c r="K170" t="n">
+        <v>15</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>6</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F171" t="n">
+        <v>214</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11</v>
+      </c>
+      <c r="K171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>6</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F172" t="n">
+        <v>224</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>12</v>
+      </c>
+      <c r="K172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>6</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F173" t="n">
+        <v>596</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>13</v>
+      </c>
+      <c r="K173" t="n">
+        <v>15</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>6</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F174" t="n">
+        <v>651</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3</v>
+      </c>
+      <c r="J174" t="n">
+        <v>14</v>
+      </c>
+      <c r="K174" t="n">
+        <v>15</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>6</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F175" t="n">
+        <v>449</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>15</v>
+      </c>
+      <c r="K175" t="n">
+        <v>15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>6</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C176" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D176" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E176" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3233</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>4</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>6</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C177" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D177" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E177" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F177" t="n">
+        <v>525</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4</v>
+      </c>
+      <c r="J177" t="n">
+        <v>10</v>
+      </c>
+      <c r="K177" t="n">
+        <v>15</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>6</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B178" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C178" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D178" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E178" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F178" t="n">
+        <v>97</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11</v>
+      </c>
+      <c r="K178" t="n">
+        <v>15</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C179" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D179" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E179" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F179" t="n">
+        <v>225</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12</v>
+      </c>
+      <c r="K179" t="n">
+        <v>15</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>6</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B180" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C180" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D180" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E180" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F180" t="n">
+        <v>695</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4</v>
+      </c>
+      <c r="J180" t="n">
+        <v>13</v>
+      </c>
+      <c r="K180" t="n">
+        <v>15</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>6</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C181" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D181" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E181" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1295</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>4</v>
+      </c>
+      <c r="J181" t="n">
+        <v>14</v>
+      </c>
+      <c r="K181" t="n">
+        <v>15</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>6</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="C182" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="D182" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="E182" t="n">
+        <v>25.94000053405762</v>
+      </c>
+      <c r="F182" t="n">
+        <v>109</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4</v>
+      </c>
+      <c r="J182" t="n">
+        <v>15</v>
+      </c>
+      <c r="K182" t="n">
+        <v>15</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q182"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9371,7 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9422,7 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
-      <c r="Q169" t="inlineStr"/>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9473,7 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
-      <c r="Q170" t="inlineStr"/>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9524,7 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
-      <c r="Q171" t="inlineStr"/>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9575,7 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
-      <c r="Q172" t="inlineStr"/>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9626,7 +9636,9 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
-      <c r="Q173" t="inlineStr"/>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9677,7 +9689,9 @@
       <c r="P174" t="n">
         <v>0</v>
       </c>
-      <c r="Q174" t="inlineStr"/>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9728,7 +9742,9 @@
       <c r="P175" t="n">
         <v>0</v>
       </c>
-      <c r="Q175" t="inlineStr"/>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9779,7 +9795,9 @@
       <c r="P176" t="n">
         <v>0</v>
       </c>
-      <c r="Q176" t="inlineStr"/>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9830,7 +9848,9 @@
       <c r="P177" t="n">
         <v>0</v>
       </c>
-      <c r="Q177" t="inlineStr"/>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9881,7 +9901,9 @@
       <c r="P178" t="n">
         <v>0</v>
       </c>
-      <c r="Q178" t="inlineStr"/>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9932,7 +9954,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9983,7 +10007,9 @@
       <c r="P180" t="n">
         <v>0</v>
       </c>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10034,7 +10060,9 @@
       <c r="P181" t="n">
         <v>0</v>
       </c>
-      <c r="Q181" t="inlineStr"/>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10085,7 +10113,1080 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C183" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D183" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E183" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F183" t="n">
+        <v>82600</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9</v>
+      </c>
+      <c r="K183" t="n">
+        <v>15</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>6</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C184" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D184" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E184" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2028</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5</v>
+      </c>
+      <c r="J184" t="n">
+        <v>10</v>
+      </c>
+      <c r="K184" t="n">
+        <v>15</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>6</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B185" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C185" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D185" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E185" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5</v>
+      </c>
+      <c r="J185" t="n">
+        <v>11</v>
+      </c>
+      <c r="K185" t="n">
+        <v>15</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>6</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C186" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D186" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E186" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1708</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5</v>
+      </c>
+      <c r="J186" t="n">
+        <v>12</v>
+      </c>
+      <c r="K186" t="n">
+        <v>15</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>6</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C187" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D187" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E187" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F187" t="n">
+        <v>935</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5</v>
+      </c>
+      <c r="J187" t="n">
+        <v>13</v>
+      </c>
+      <c r="K187" t="n">
+        <v>15</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>6</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C188" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D188" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E188" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F188" t="n">
+        <v>790</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5</v>
+      </c>
+      <c r="J188" t="n">
+        <v>14</v>
+      </c>
+      <c r="K188" t="n">
+        <v>15</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>6</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C189" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D189" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="E189" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4290</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5</v>
+      </c>
+      <c r="J189" t="n">
+        <v>15</v>
+      </c>
+      <c r="K189" t="n">
+        <v>15</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>6</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23.45999908447266</v>
+      </c>
+      <c r="C190" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D190" t="n">
+        <v>23.45999908447266</v>
+      </c>
+      <c r="E190" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>461491</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6</v>
+      </c>
+      <c r="J190" t="n">
+        <v>9</v>
+      </c>
+      <c r="K190" t="n">
+        <v>15</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>6</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C191" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D191" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="E191" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7898</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6</v>
+      </c>
+      <c r="J191" t="n">
+        <v>10</v>
+      </c>
+      <c r="K191" t="n">
+        <v>15</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>6</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B192" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C192" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D192" t="n">
+        <v>25.86000061035156</v>
+      </c>
+      <c r="E192" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>243223</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6</v>
+      </c>
+      <c r="J192" t="n">
+        <v>11</v>
+      </c>
+      <c r="K192" t="n">
+        <v>15</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>6</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C193" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D193" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="E193" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>98139</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" t="n">
+        <v>6</v>
+      </c>
+      <c r="J193" t="n">
+        <v>12</v>
+      </c>
+      <c r="K193" t="n">
+        <v>15</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>6</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C194" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D194" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="E194" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>19819</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" t="n">
+        <v>6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>13</v>
+      </c>
+      <c r="K194" t="n">
+        <v>15</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>6</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B195" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C195" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="E195" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6974</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>14</v>
+      </c>
+      <c r="K195" t="n">
+        <v>15</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="C196" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D196" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="E196" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>523</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6</v>
+      </c>
+      <c r="J196" t="n">
+        <v>15</v>
+      </c>
+      <c r="K196" t="n">
+        <v>15</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>6</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="C197" t="n">
+        <v>27.09000015258789</v>
+      </c>
+      <c r="D197" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E197" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F197" t="n">
+        <v>106776</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7</v>
+      </c>
+      <c r="J197" t="n">
+        <v>9</v>
+      </c>
+      <c r="K197" t="n">
+        <v>15</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>6</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C198" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D198" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E198" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8688</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" t="n">
+        <v>7</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10</v>
+      </c>
+      <c r="K198" t="n">
+        <v>15</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>6</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B199" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C199" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D199" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E199" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2429</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7</v>
+      </c>
+      <c r="J199" t="n">
+        <v>11</v>
+      </c>
+      <c r="K199" t="n">
+        <v>15</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C200" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D200" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E200" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3479</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>12</v>
+      </c>
+      <c r="K200" t="n">
+        <v>15</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>6</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B201" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C201" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D201" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E201" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2078</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" t="n">
+        <v>7</v>
+      </c>
+      <c r="J201" t="n">
+        <v>13</v>
+      </c>
+      <c r="K201" t="n">
+        <v>15</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>6</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B202" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C202" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D202" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E202" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F202" t="n">
+        <v>15473</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" t="n">
+        <v>7</v>
+      </c>
+      <c r="J202" t="n">
+        <v>14</v>
+      </c>
+      <c r="K202" t="n">
+        <v>15</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B203" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="C203" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="D203" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="E203" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4088</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+      <c r="I203" t="n">
+        <v>7</v>
+      </c>
+      <c r="J203" t="n">
+        <v>15</v>
+      </c>
+      <c r="K203" t="n">
+        <v>15</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>6</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10166,7 +10166,9 @@
       <c r="P183" t="n">
         <v>0</v>
       </c>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10217,7 +10219,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10268,7 +10272,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10319,7 +10325,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10370,7 +10378,9 @@
       <c r="P187" t="n">
         <v>0</v>
       </c>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10421,7 +10431,9 @@
       <c r="P188" t="n">
         <v>0</v>
       </c>
-      <c r="Q188" t="inlineStr"/>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10472,7 +10484,9 @@
       <c r="P189" t="n">
         <v>0</v>
       </c>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10523,7 +10537,9 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10574,7 +10590,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10625,7 +10643,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10676,7 +10696,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10727,7 +10749,9 @@
       <c r="P194" t="n">
         <v>0</v>
       </c>
-      <c r="Q194" t="inlineStr"/>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10778,7 +10802,9 @@
       <c r="P195" t="n">
         <v>0</v>
       </c>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10829,7 +10855,9 @@
       <c r="P196" t="n">
         <v>0</v>
       </c>
-      <c r="Q196" t="inlineStr"/>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10872,7 +10900,7 @@
         <v>6</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
@@ -10880,7 +10908,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10931,7 +10961,9 @@
       <c r="P198" t="n">
         <v>0</v>
       </c>
-      <c r="Q198" t="inlineStr"/>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10982,7 +11014,9 @@
       <c r="P199" t="n">
         <v>0</v>
       </c>
-      <c r="Q199" t="inlineStr"/>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11033,7 +11067,9 @@
       <c r="P200" t="n">
         <v>0</v>
       </c>
-      <c r="Q200" t="inlineStr"/>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11084,7 +11120,9 @@
       <c r="P201" t="n">
         <v>0</v>
       </c>
-      <c r="Q201" t="inlineStr"/>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11135,7 +11173,9 @@
       <c r="P202" t="n">
         <v>0</v>
       </c>
-      <c r="Q202" t="inlineStr"/>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11186,7 +11226,1080 @@
       <c r="P203" t="n">
         <v>0</v>
       </c>
-      <c r="Q203" t="inlineStr"/>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B204" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C204" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D204" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E204" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2686</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+      <c r="I204" t="n">
+        <v>10</v>
+      </c>
+      <c r="J204" t="n">
+        <v>9</v>
+      </c>
+      <c r="K204" t="n">
+        <v>15</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>7</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B205" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C205" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D205" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E205" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2135</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+      <c r="I205" t="n">
+        <v>10</v>
+      </c>
+      <c r="J205" t="n">
+        <v>10</v>
+      </c>
+      <c r="K205" t="n">
+        <v>15</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>7</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B206" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C206" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D206" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E206" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3127</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" t="n">
+        <v>10</v>
+      </c>
+      <c r="J206" t="n">
+        <v>11</v>
+      </c>
+      <c r="K206" t="n">
+        <v>15</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>7</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B207" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C207" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D207" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E207" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>438</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I207" t="n">
+        <v>10</v>
+      </c>
+      <c r="J207" t="n">
+        <v>12</v>
+      </c>
+      <c r="K207" t="n">
+        <v>15</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>7</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B208" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C208" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D208" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E208" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>335</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+      <c r="I208" t="n">
+        <v>10</v>
+      </c>
+      <c r="J208" t="n">
+        <v>13</v>
+      </c>
+      <c r="K208" t="n">
+        <v>15</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>7</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B209" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C209" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D209" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E209" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>949</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10</v>
+      </c>
+      <c r="J209" t="n">
+        <v>14</v>
+      </c>
+      <c r="K209" t="n">
+        <v>15</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>7</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B210" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="C210" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="D210" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="E210" t="n">
+        <v>23.3700008392334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>65</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+      <c r="I210" t="n">
+        <v>10</v>
+      </c>
+      <c r="J210" t="n">
+        <v>15</v>
+      </c>
+      <c r="K210" t="n">
+        <v>15</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>7</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B211" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C211" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D211" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E211" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6711</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" t="n">
+        <v>11</v>
+      </c>
+      <c r="J211" t="n">
+        <v>9</v>
+      </c>
+      <c r="K211" t="n">
+        <v>15</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>7</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C212" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D212" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E212" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2439</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="n">
+        <v>11</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10</v>
+      </c>
+      <c r="K212" t="n">
+        <v>15</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>7</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B213" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C213" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E213" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F213" t="n">
+        <v>424</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11</v>
+      </c>
+      <c r="J213" t="n">
+        <v>11</v>
+      </c>
+      <c r="K213" t="n">
+        <v>15</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>7</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B214" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C214" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E214" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1221</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12</v>
+      </c>
+      <c r="K214" t="n">
+        <v>15</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>7</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B215" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C215" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D215" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E215" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F215" t="n">
+        <v>583</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11</v>
+      </c>
+      <c r="J215" t="n">
+        <v>13</v>
+      </c>
+      <c r="K215" t="n">
+        <v>15</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>7</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B216" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D216" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E216" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F216" t="n">
+        <v>997</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I216" t="n">
+        <v>11</v>
+      </c>
+      <c r="J216" t="n">
+        <v>14</v>
+      </c>
+      <c r="K216" t="n">
+        <v>15</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>7</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B217" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C217" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="D217" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E217" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="F217" t="n">
+        <v>104</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" t="n">
+        <v>11</v>
+      </c>
+      <c r="J217" t="n">
+        <v>15</v>
+      </c>
+      <c r="K217" t="n">
+        <v>15</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>7</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B218" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D218" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E218" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3613</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" t="n">
+        <v>12</v>
+      </c>
+      <c r="J218" t="n">
+        <v>9</v>
+      </c>
+      <c r="K218" t="n">
+        <v>15</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>7</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B219" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C219" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D219" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E219" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2460</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" t="n">
+        <v>12</v>
+      </c>
+      <c r="J219" t="n">
+        <v>10</v>
+      </c>
+      <c r="K219" t="n">
+        <v>15</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>7</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B220" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C220" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D220" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F220" t="n">
+        <v>578</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" t="n">
+        <v>12</v>
+      </c>
+      <c r="J220" t="n">
+        <v>11</v>
+      </c>
+      <c r="K220" t="n">
+        <v>15</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>7</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B221" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C221" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D221" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E221" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F221" t="n">
+        <v>877</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" t="n">
+        <v>12</v>
+      </c>
+      <c r="J221" t="n">
+        <v>12</v>
+      </c>
+      <c r="K221" t="n">
+        <v>15</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>7</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B222" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C222" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D222" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E222" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1109</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I222" t="n">
+        <v>12</v>
+      </c>
+      <c r="J222" t="n">
+        <v>13</v>
+      </c>
+      <c r="K222" t="n">
+        <v>15</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>7</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B223" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C223" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D223" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E223" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F223" t="n">
+        <v>496</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" t="n">
+        <v>12</v>
+      </c>
+      <c r="J223" t="n">
+        <v>14</v>
+      </c>
+      <c r="K223" t="n">
+        <v>15</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>7</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B224" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C224" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="D224" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="E224" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="F224" t="n">
+        <v>93</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I224" t="n">
+        <v>12</v>
+      </c>
+      <c r="J224" t="n">
+        <v>15</v>
+      </c>
+      <c r="K224" t="n">
+        <v>15</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>7</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q224"/>
+  <dimension ref="A1:Q231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11279,7 +11279,9 @@
       <c r="P204" t="n">
         <v>0</v>
       </c>
-      <c r="Q204" t="inlineStr"/>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11330,7 +11332,9 @@
       <c r="P205" t="n">
         <v>0</v>
       </c>
-      <c r="Q205" t="inlineStr"/>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11381,7 +11385,9 @@
       <c r="P206" t="n">
         <v>0</v>
       </c>
-      <c r="Q206" t="inlineStr"/>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11432,7 +11438,9 @@
       <c r="P207" t="n">
         <v>0</v>
       </c>
-      <c r="Q207" t="inlineStr"/>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11483,7 +11491,9 @@
       <c r="P208" t="n">
         <v>0</v>
       </c>
-      <c r="Q208" t="inlineStr"/>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11534,7 +11544,9 @@
       <c r="P209" t="n">
         <v>0</v>
       </c>
-      <c r="Q209" t="inlineStr"/>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11585,7 +11597,9 @@
       <c r="P210" t="n">
         <v>0</v>
       </c>
-      <c r="Q210" t="inlineStr"/>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11636,7 +11650,9 @@
       <c r="P211" t="n">
         <v>0</v>
       </c>
-      <c r="Q211" t="inlineStr"/>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11687,7 +11703,9 @@
       <c r="P212" t="n">
         <v>0</v>
       </c>
-      <c r="Q212" t="inlineStr"/>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11738,7 +11756,9 @@
       <c r="P213" t="n">
         <v>0</v>
       </c>
-      <c r="Q213" t="inlineStr"/>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11789,7 +11809,9 @@
       <c r="P214" t="n">
         <v>0</v>
       </c>
-      <c r="Q214" t="inlineStr"/>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11840,7 +11862,9 @@
       <c r="P215" t="n">
         <v>0</v>
       </c>
-      <c r="Q215" t="inlineStr"/>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11891,7 +11915,9 @@
       <c r="P216" t="n">
         <v>0</v>
       </c>
-      <c r="Q216" t="inlineStr"/>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11942,7 +11968,9 @@
       <c r="P217" t="n">
         <v>0</v>
       </c>
-      <c r="Q217" t="inlineStr"/>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11993,7 +12021,9 @@
       <c r="P218" t="n">
         <v>0</v>
       </c>
-      <c r="Q218" t="inlineStr"/>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12044,7 +12074,9 @@
       <c r="P219" t="n">
         <v>0</v>
       </c>
-      <c r="Q219" t="inlineStr"/>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12095,7 +12127,9 @@
       <c r="P220" t="n">
         <v>0</v>
       </c>
-      <c r="Q220" t="inlineStr"/>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12146,7 +12180,9 @@
       <c r="P221" t="n">
         <v>0</v>
       </c>
-      <c r="Q221" t="inlineStr"/>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12197,7 +12233,9 @@
       <c r="P222" t="n">
         <v>0</v>
       </c>
-      <c r="Q222" t="inlineStr"/>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12248,7 +12286,9 @@
       <c r="P223" t="n">
         <v>0</v>
       </c>
-      <c r="Q223" t="inlineStr"/>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12299,7 +12339,366 @@
       <c r="P224" t="n">
         <v>0</v>
       </c>
-      <c r="Q224" t="inlineStr"/>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B225" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C225" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D225" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E225" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3384</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" t="n">
+        <v>13</v>
+      </c>
+      <c r="J225" t="n">
+        <v>9</v>
+      </c>
+      <c r="K225" t="n">
+        <v>15</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>7</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B226" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C226" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D226" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E226" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F226" t="n">
+        <v>951</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" t="n">
+        <v>13</v>
+      </c>
+      <c r="J226" t="n">
+        <v>10</v>
+      </c>
+      <c r="K226" t="n">
+        <v>15</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>7</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B227" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C227" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D227" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E227" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F227" t="n">
+        <v>677</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>13</v>
+      </c>
+      <c r="J227" t="n">
+        <v>11</v>
+      </c>
+      <c r="K227" t="n">
+        <v>15</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>7</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B228" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C228" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D228" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E228" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I228" t="n">
+        <v>13</v>
+      </c>
+      <c r="J228" t="n">
+        <v>12</v>
+      </c>
+      <c r="K228" t="n">
+        <v>15</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>7</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B229" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C229" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D229" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E229" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F229" t="n">
+        <v>519</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>13</v>
+      </c>
+      <c r="J229" t="n">
+        <v>13</v>
+      </c>
+      <c r="K229" t="n">
+        <v>15</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>7</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B230" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C230" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D230" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E230" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F230" t="n">
+        <v>341</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" t="n">
+        <v>13</v>
+      </c>
+      <c r="J230" t="n">
+        <v>14</v>
+      </c>
+      <c r="K230" t="n">
+        <v>15</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>7</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B231" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C231" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D231" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="E231" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F231" t="n">
+        <v>375</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" t="n">
+        <v>13</v>
+      </c>
+      <c r="J231" t="n">
+        <v>15</v>
+      </c>
+      <c r="K231" t="n">
+        <v>15</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>7</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q495"/>
+  <dimension ref="A1:Q520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24580,6 +24580,1131 @@
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="inlineStr"/>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45709.15625</v>
+      </c>
+      <c r="B496" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="C496" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="D496" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="E496" t="n">
+        <v>23.8700008392334</v>
+      </c>
+      <c r="F496" t="n">
+        <v>116003</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H496" t="n">
+        <v>2</v>
+      </c>
+      <c r="I496" t="n">
+        <v>21</v>
+      </c>
+      <c r="J496" t="n">
+        <v>3</v>
+      </c>
+      <c r="K496" t="n">
+        <v>45</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M496" t="n">
+        <v>8</v>
+      </c>
+      <c r="N496" t="inlineStr"/>
+      <c r="O496" t="inlineStr"/>
+      <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45709.19791666666</v>
+      </c>
+      <c r="B497" t="n">
+        <v>23.86000061035156</v>
+      </c>
+      <c r="C497" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D497" t="n">
+        <v>23.86000061035156</v>
+      </c>
+      <c r="E497" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F497" t="n">
+        <v>99415</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H497" t="n">
+        <v>2</v>
+      </c>
+      <c r="I497" t="n">
+        <v>21</v>
+      </c>
+      <c r="J497" t="n">
+        <v>4</v>
+      </c>
+      <c r="K497" t="n">
+        <v>45</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>8</v>
+      </c>
+      <c r="N497" t="inlineStr"/>
+      <c r="O497" t="inlineStr"/>
+      <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45709.23958333334</v>
+      </c>
+      <c r="B498" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="C498" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D498" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="E498" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F498" t="n">
+        <v>16504</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H498" t="n">
+        <v>2</v>
+      </c>
+      <c r="I498" t="n">
+        <v>21</v>
+      </c>
+      <c r="J498" t="n">
+        <v>5</v>
+      </c>
+      <c r="K498" t="n">
+        <v>45</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>8</v>
+      </c>
+      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr"/>
+      <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45709.28125</v>
+      </c>
+      <c r="B499" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="C499" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D499" t="n">
+        <v>24.29000091552734</v>
+      </c>
+      <c r="E499" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F499" t="n">
+        <v>11633</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H499" t="n">
+        <v>2</v>
+      </c>
+      <c r="I499" t="n">
+        <v>21</v>
+      </c>
+      <c r="J499" t="n">
+        <v>6</v>
+      </c>
+      <c r="K499" t="n">
+        <v>45</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>8</v>
+      </c>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr"/>
+      <c r="Q499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45709.32291666666</v>
+      </c>
+      <c r="B500" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="C500" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D500" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="E500" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F500" t="n">
+        <v>5932</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H500" t="n">
+        <v>2</v>
+      </c>
+      <c r="I500" t="n">
+        <v>21</v>
+      </c>
+      <c r="J500" t="n">
+        <v>7</v>
+      </c>
+      <c r="K500" t="n">
+        <v>45</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>8</v>
+      </c>
+      <c r="N500" t="inlineStr"/>
+      <c r="O500" t="inlineStr"/>
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45709.36458333334</v>
+      </c>
+      <c r="B501" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="C501" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D501" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="E501" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F501" t="n">
+        <v>9524</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H501" t="n">
+        <v>2</v>
+      </c>
+      <c r="I501" t="n">
+        <v>21</v>
+      </c>
+      <c r="J501" t="n">
+        <v>8</v>
+      </c>
+      <c r="K501" t="n">
+        <v>45</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>8</v>
+      </c>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45709.40625</v>
+      </c>
+      <c r="B502" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="C502" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="D502" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="E502" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H502" t="n">
+        <v>2</v>
+      </c>
+      <c r="I502" t="n">
+        <v>21</v>
+      </c>
+      <c r="J502" t="n">
+        <v>9</v>
+      </c>
+      <c r="K502" t="n">
+        <v>45</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>8</v>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45712.19791666666</v>
+      </c>
+      <c r="B503" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="C503" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="D503" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="E503" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H503" t="n">
+        <v>2</v>
+      </c>
+      <c r="I503" t="n">
+        <v>24</v>
+      </c>
+      <c r="J503" t="n">
+        <v>4</v>
+      </c>
+      <c r="K503" t="n">
+        <v>45</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>9</v>
+      </c>
+      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr"/>
+      <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45712.23958333334</v>
+      </c>
+      <c r="B504" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="C504" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="D504" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="E504" t="n">
+        <v>23.81999969482422</v>
+      </c>
+      <c r="F504" t="n">
+        <v>56319</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H504" t="n">
+        <v>2</v>
+      </c>
+      <c r="I504" t="n">
+        <v>24</v>
+      </c>
+      <c r="J504" t="n">
+        <v>5</v>
+      </c>
+      <c r="K504" t="n">
+        <v>45</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M504" t="n">
+        <v>9</v>
+      </c>
+      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45712.28125</v>
+      </c>
+      <c r="B505" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="C505" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="D505" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="E505" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F505" t="n">
+        <v>14341</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H505" t="n">
+        <v>2</v>
+      </c>
+      <c r="I505" t="n">
+        <v>24</v>
+      </c>
+      <c r="J505" t="n">
+        <v>6</v>
+      </c>
+      <c r="K505" t="n">
+        <v>45</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>9</v>
+      </c>
+      <c r="N505" t="inlineStr"/>
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45712.32291666666</v>
+      </c>
+      <c r="B506" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="C506" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="D506" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="E506" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1046</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H506" t="n">
+        <v>2</v>
+      </c>
+      <c r="I506" t="n">
+        <v>24</v>
+      </c>
+      <c r="J506" t="n">
+        <v>7</v>
+      </c>
+      <c r="K506" t="n">
+        <v>45</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>9</v>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45712.36458333334</v>
+      </c>
+      <c r="B507" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="C507" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="D507" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="E507" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F507" t="n">
+        <v>1465</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H507" t="n">
+        <v>2</v>
+      </c>
+      <c r="I507" t="n">
+        <v>24</v>
+      </c>
+      <c r="J507" t="n">
+        <v>8</v>
+      </c>
+      <c r="K507" t="n">
+        <v>45</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>9</v>
+      </c>
+      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr"/>
+      <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45712.40625</v>
+      </c>
+      <c r="B508" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="C508" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="D508" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="E508" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F508" t="n">
+        <v>269</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H508" t="n">
+        <v>2</v>
+      </c>
+      <c r="I508" t="n">
+        <v>24</v>
+      </c>
+      <c r="J508" t="n">
+        <v>9</v>
+      </c>
+      <c r="K508" t="n">
+        <v>45</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>9</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45713.19791666666</v>
+      </c>
+      <c r="B509" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="C509" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="D509" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="E509" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H509" t="n">
+        <v>2</v>
+      </c>
+      <c r="I509" t="n">
+        <v>25</v>
+      </c>
+      <c r="J509" t="n">
+        <v>4</v>
+      </c>
+      <c r="K509" t="n">
+        <v>45</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>9</v>
+      </c>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45713.23958333334</v>
+      </c>
+      <c r="B510" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="C510" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="D510" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="E510" t="n">
+        <v>25.27000045776367</v>
+      </c>
+      <c r="F510" t="n">
+        <v>37628</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H510" t="n">
+        <v>2</v>
+      </c>
+      <c r="I510" t="n">
+        <v>25</v>
+      </c>
+      <c r="J510" t="n">
+        <v>5</v>
+      </c>
+      <c r="K510" t="n">
+        <v>45</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>9</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45713.28125</v>
+      </c>
+      <c r="B511" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C511" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D511" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="E511" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F511" t="n">
+        <v>3913</v>
+      </c>
+      <c r="G511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H511" t="n">
+        <v>2</v>
+      </c>
+      <c r="I511" t="n">
+        <v>25</v>
+      </c>
+      <c r="J511" t="n">
+        <v>6</v>
+      </c>
+      <c r="K511" t="n">
+        <v>45</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>9</v>
+      </c>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45713.32291666666</v>
+      </c>
+      <c r="B512" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="C512" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="D512" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="E512" t="n">
+        <v>24.78000068664551</v>
+      </c>
+      <c r="F512" t="n">
+        <v>8562</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H512" t="n">
+        <v>2</v>
+      </c>
+      <c r="I512" t="n">
+        <v>25</v>
+      </c>
+      <c r="J512" t="n">
+        <v>7</v>
+      </c>
+      <c r="K512" t="n">
+        <v>45</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>9</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45713.36458333334</v>
+      </c>
+      <c r="B513" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="C513" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="D513" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="E513" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="F513" t="n">
+        <v>3156</v>
+      </c>
+      <c r="G513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H513" t="n">
+        <v>2</v>
+      </c>
+      <c r="I513" t="n">
+        <v>25</v>
+      </c>
+      <c r="J513" t="n">
+        <v>8</v>
+      </c>
+      <c r="K513" t="n">
+        <v>45</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M513" t="n">
+        <v>9</v>
+      </c>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45713.40625</v>
+      </c>
+      <c r="B514" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="C514" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="D514" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="E514" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="F514" t="n">
+        <v>8412</v>
+      </c>
+      <c r="G514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H514" t="n">
+        <v>2</v>
+      </c>
+      <c r="I514" t="n">
+        <v>25</v>
+      </c>
+      <c r="J514" t="n">
+        <v>9</v>
+      </c>
+      <c r="K514" t="n">
+        <v>45</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>9</v>
+      </c>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45715.19791666666</v>
+      </c>
+      <c r="B515" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C515" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D515" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E515" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H515" t="n">
+        <v>2</v>
+      </c>
+      <c r="I515" t="n">
+        <v>27</v>
+      </c>
+      <c r="J515" t="n">
+        <v>4</v>
+      </c>
+      <c r="K515" t="n">
+        <v>45</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>9</v>
+      </c>
+      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr"/>
+      <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45715.23958333334</v>
+      </c>
+      <c r="B516" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C516" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D516" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E516" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F516" t="n">
+        <v>251</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H516" t="n">
+        <v>2</v>
+      </c>
+      <c r="I516" t="n">
+        <v>27</v>
+      </c>
+      <c r="J516" t="n">
+        <v>5</v>
+      </c>
+      <c r="K516" t="n">
+        <v>45</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>9</v>
+      </c>
+      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="inlineStr"/>
+      <c r="Q516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45715.28125</v>
+      </c>
+      <c r="B517" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C517" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D517" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E517" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F517" t="n">
+        <v>936</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H517" t="n">
+        <v>2</v>
+      </c>
+      <c r="I517" t="n">
+        <v>27</v>
+      </c>
+      <c r="J517" t="n">
+        <v>6</v>
+      </c>
+      <c r="K517" t="n">
+        <v>45</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>9</v>
+      </c>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45715.32291666666</v>
+      </c>
+      <c r="B518" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C518" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D518" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E518" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H518" t="n">
+        <v>2</v>
+      </c>
+      <c r="I518" t="n">
+        <v>27</v>
+      </c>
+      <c r="J518" t="n">
+        <v>7</v>
+      </c>
+      <c r="K518" t="n">
+        <v>45</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>9</v>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45715.36458333334</v>
+      </c>
+      <c r="B519" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C519" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D519" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E519" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H519" t="n">
+        <v>2</v>
+      </c>
+      <c r="I519" t="n">
+        <v>27</v>
+      </c>
+      <c r="J519" t="n">
+        <v>8</v>
+      </c>
+      <c r="K519" t="n">
+        <v>45</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>9</v>
+      </c>
+      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45715.40625</v>
+      </c>
+      <c r="B520" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="C520" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="D520" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="E520" t="n">
+        <v>24.28000068664551</v>
+      </c>
+      <c r="F520" t="n">
+        <v>510</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H520" t="n">
+        <v>2</v>
+      </c>
+      <c r="I520" t="n">
+        <v>27</v>
+      </c>
+      <c r="J520" t="n">
+        <v>9</v>
+      </c>
+      <c r="K520" t="n">
+        <v>45</v>
+      </c>
+      <c r="L520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>9</v>
+      </c>
+      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr"/>
+      <c r="Q520" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q520"/>
+  <dimension ref="A1:Q556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25705,6 +25705,1626 @@
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="inlineStr"/>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45716.19791666666</v>
+      </c>
+      <c r="B521" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C521" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D521" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E521" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H521" t="n">
+        <v>2</v>
+      </c>
+      <c r="I521" t="n">
+        <v>28</v>
+      </c>
+      <c r="J521" t="n">
+        <v>4</v>
+      </c>
+      <c r="K521" t="n">
+        <v>45</v>
+      </c>
+      <c r="L521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M521" t="n">
+        <v>9</v>
+      </c>
+      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr"/>
+      <c r="Q521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45716.23958333334</v>
+      </c>
+      <c r="B522" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C522" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D522" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E522" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F522" t="n">
+        <v>81</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H522" t="n">
+        <v>2</v>
+      </c>
+      <c r="I522" t="n">
+        <v>28</v>
+      </c>
+      <c r="J522" t="n">
+        <v>5</v>
+      </c>
+      <c r="K522" t="n">
+        <v>45</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M522" t="n">
+        <v>9</v>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr"/>
+      <c r="Q522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45716.28125</v>
+      </c>
+      <c r="B523" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C523" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D523" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E523" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F523" t="n">
+        <v>83</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H523" t="n">
+        <v>2</v>
+      </c>
+      <c r="I523" t="n">
+        <v>28</v>
+      </c>
+      <c r="J523" t="n">
+        <v>6</v>
+      </c>
+      <c r="K523" t="n">
+        <v>45</v>
+      </c>
+      <c r="L523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>9</v>
+      </c>
+      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45716.32291666666</v>
+      </c>
+      <c r="B524" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C524" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D524" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E524" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F524" t="n">
+        <v>218</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H524" t="n">
+        <v>2</v>
+      </c>
+      <c r="I524" t="n">
+        <v>28</v>
+      </c>
+      <c r="J524" t="n">
+        <v>7</v>
+      </c>
+      <c r="K524" t="n">
+        <v>45</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>9</v>
+      </c>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45716.36458333334</v>
+      </c>
+      <c r="B525" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C525" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D525" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E525" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F525" t="n">
+        <v>258</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H525" t="n">
+        <v>2</v>
+      </c>
+      <c r="I525" t="n">
+        <v>28</v>
+      </c>
+      <c r="J525" t="n">
+        <v>8</v>
+      </c>
+      <c r="K525" t="n">
+        <v>45</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>9</v>
+      </c>
+      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45716.40625</v>
+      </c>
+      <c r="B526" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="C526" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="D526" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E526" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="F526" t="n">
+        <v>936</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H526" t="n">
+        <v>2</v>
+      </c>
+      <c r="I526" t="n">
+        <v>28</v>
+      </c>
+      <c r="J526" t="n">
+        <v>9</v>
+      </c>
+      <c r="K526" t="n">
+        <v>45</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>9</v>
+      </c>
+      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45719.19791666666</v>
+      </c>
+      <c r="B527" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C527" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D527" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E527" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H527" t="n">
+        <v>3</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J527" t="n">
+        <v>4</v>
+      </c>
+      <c r="K527" t="n">
+        <v>45</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>10</v>
+      </c>
+      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="inlineStr"/>
+      <c r="Q527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45719.23958333334</v>
+      </c>
+      <c r="B528" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C528" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D528" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E528" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F528" t="n">
+        <v>346</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H528" t="n">
+        <v>3</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3</v>
+      </c>
+      <c r="J528" t="n">
+        <v>5</v>
+      </c>
+      <c r="K528" t="n">
+        <v>45</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>10</v>
+      </c>
+      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr"/>
+      <c r="Q528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45719.28125</v>
+      </c>
+      <c r="B529" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C529" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D529" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E529" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F529" t="n">
+        <v>450</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H529" t="n">
+        <v>3</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3</v>
+      </c>
+      <c r="J529" t="n">
+        <v>6</v>
+      </c>
+      <c r="K529" t="n">
+        <v>45</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>10</v>
+      </c>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45719.32291666666</v>
+      </c>
+      <c r="B530" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C530" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D530" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E530" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F530" t="n">
+        <v>4102</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H530" t="n">
+        <v>3</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3</v>
+      </c>
+      <c r="J530" t="n">
+        <v>7</v>
+      </c>
+      <c r="K530" t="n">
+        <v>45</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>10</v>
+      </c>
+      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="inlineStr"/>
+      <c r="Q530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45719.36458333334</v>
+      </c>
+      <c r="B531" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C531" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D531" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E531" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F531" t="n">
+        <v>281</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H531" t="n">
+        <v>3</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3</v>
+      </c>
+      <c r="J531" t="n">
+        <v>8</v>
+      </c>
+      <c r="K531" t="n">
+        <v>45</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>10</v>
+      </c>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="inlineStr"/>
+      <c r="Q531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45719.40625</v>
+      </c>
+      <c r="B532" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C532" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D532" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="E532" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="F532" t="n">
+        <v>676</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H532" t="n">
+        <v>3</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3</v>
+      </c>
+      <c r="J532" t="n">
+        <v>9</v>
+      </c>
+      <c r="K532" t="n">
+        <v>45</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>10</v>
+      </c>
+      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="inlineStr"/>
+      <c r="Q532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45720.19791666666</v>
+      </c>
+      <c r="B533" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C533" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D533" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E533" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H533" t="n">
+        <v>3</v>
+      </c>
+      <c r="I533" t="n">
+        <v>4</v>
+      </c>
+      <c r="J533" t="n">
+        <v>4</v>
+      </c>
+      <c r="K533" t="n">
+        <v>45</v>
+      </c>
+      <c r="L533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>10</v>
+      </c>
+      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="inlineStr"/>
+      <c r="Q533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45720.23958333334</v>
+      </c>
+      <c r="B534" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C534" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D534" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E534" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F534" t="n">
+        <v>3353</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H534" t="n">
+        <v>3</v>
+      </c>
+      <c r="I534" t="n">
+        <v>4</v>
+      </c>
+      <c r="J534" t="n">
+        <v>5</v>
+      </c>
+      <c r="K534" t="n">
+        <v>45</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>10</v>
+      </c>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45720.28125</v>
+      </c>
+      <c r="B535" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C535" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D535" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E535" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F535" t="n">
+        <v>205</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H535" t="n">
+        <v>3</v>
+      </c>
+      <c r="I535" t="n">
+        <v>4</v>
+      </c>
+      <c r="J535" t="n">
+        <v>6</v>
+      </c>
+      <c r="K535" t="n">
+        <v>45</v>
+      </c>
+      <c r="L535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>10</v>
+      </c>
+      <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr"/>
+      <c r="P535" t="inlineStr"/>
+      <c r="Q535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45720.32291666666</v>
+      </c>
+      <c r="B536" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C536" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D536" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E536" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F536" t="n">
+        <v>436</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H536" t="n">
+        <v>3</v>
+      </c>
+      <c r="I536" t="n">
+        <v>4</v>
+      </c>
+      <c r="J536" t="n">
+        <v>7</v>
+      </c>
+      <c r="K536" t="n">
+        <v>45</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>10</v>
+      </c>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45720.36458333334</v>
+      </c>
+      <c r="B537" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C537" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D537" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E537" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H537" t="n">
+        <v>3</v>
+      </c>
+      <c r="I537" t="n">
+        <v>4</v>
+      </c>
+      <c r="J537" t="n">
+        <v>8</v>
+      </c>
+      <c r="K537" t="n">
+        <v>45</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>10</v>
+      </c>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="inlineStr"/>
+      <c r="Q537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45720.40625</v>
+      </c>
+      <c r="B538" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="C538" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="D538" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="E538" t="n">
+        <v>22.8700008392334</v>
+      </c>
+      <c r="F538" t="n">
+        <v>317</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H538" t="n">
+        <v>3</v>
+      </c>
+      <c r="I538" t="n">
+        <v>4</v>
+      </c>
+      <c r="J538" t="n">
+        <v>9</v>
+      </c>
+      <c r="K538" t="n">
+        <v>45</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>10</v>
+      </c>
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45721.19791666666</v>
+      </c>
+      <c r="B539" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C539" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D539" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E539" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F539" t="n">
+        <v>43872</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H539" t="n">
+        <v>3</v>
+      </c>
+      <c r="I539" t="n">
+        <v>5</v>
+      </c>
+      <c r="J539" t="n">
+        <v>4</v>
+      </c>
+      <c r="K539" t="n">
+        <v>45</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>10</v>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45721.23958333334</v>
+      </c>
+      <c r="B540" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C540" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D540" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E540" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F540" t="n">
+        <v>15139</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H540" t="n">
+        <v>3</v>
+      </c>
+      <c r="I540" t="n">
+        <v>5</v>
+      </c>
+      <c r="J540" t="n">
+        <v>5</v>
+      </c>
+      <c r="K540" t="n">
+        <v>45</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>10</v>
+      </c>
+      <c r="N540" t="inlineStr"/>
+      <c r="O540" t="inlineStr"/>
+      <c r="P540" t="inlineStr"/>
+      <c r="Q540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45721.28125</v>
+      </c>
+      <c r="B541" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C541" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D541" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E541" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F541" t="n">
+        <v>683</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H541" t="n">
+        <v>3</v>
+      </c>
+      <c r="I541" t="n">
+        <v>5</v>
+      </c>
+      <c r="J541" t="n">
+        <v>6</v>
+      </c>
+      <c r="K541" t="n">
+        <v>45</v>
+      </c>
+      <c r="L541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>10</v>
+      </c>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="inlineStr"/>
+      <c r="Q541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45721.32291666666</v>
+      </c>
+      <c r="B542" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C542" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D542" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E542" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1978</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H542" t="n">
+        <v>3</v>
+      </c>
+      <c r="I542" t="n">
+        <v>5</v>
+      </c>
+      <c r="J542" t="n">
+        <v>7</v>
+      </c>
+      <c r="K542" t="n">
+        <v>45</v>
+      </c>
+      <c r="L542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>10</v>
+      </c>
+      <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="inlineStr"/>
+      <c r="Q542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45721.36458333334</v>
+      </c>
+      <c r="B543" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C543" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D543" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E543" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F543" t="n">
+        <v>3397</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H543" t="n">
+        <v>3</v>
+      </c>
+      <c r="I543" t="n">
+        <v>5</v>
+      </c>
+      <c r="J543" t="n">
+        <v>8</v>
+      </c>
+      <c r="K543" t="n">
+        <v>45</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>10</v>
+      </c>
+      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr"/>
+      <c r="P543" t="inlineStr"/>
+      <c r="Q543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45721.40625</v>
+      </c>
+      <c r="B544" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="C544" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="D544" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="E544" t="n">
+        <v>22.42000007629395</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1258</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H544" t="n">
+        <v>3</v>
+      </c>
+      <c r="I544" t="n">
+        <v>5</v>
+      </c>
+      <c r="J544" t="n">
+        <v>9</v>
+      </c>
+      <c r="K544" t="n">
+        <v>45</v>
+      </c>
+      <c r="L544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>10</v>
+      </c>
+      <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="inlineStr"/>
+      <c r="Q544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45722.19791666666</v>
+      </c>
+      <c r="B545" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C545" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D545" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E545" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H545" t="n">
+        <v>3</v>
+      </c>
+      <c r="I545" t="n">
+        <v>6</v>
+      </c>
+      <c r="J545" t="n">
+        <v>4</v>
+      </c>
+      <c r="K545" t="n">
+        <v>45</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>10</v>
+      </c>
+      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="inlineStr"/>
+      <c r="Q545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45722.23958333334</v>
+      </c>
+      <c r="B546" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C546" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D546" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E546" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F546" t="n">
+        <v>174</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H546" t="n">
+        <v>3</v>
+      </c>
+      <c r="I546" t="n">
+        <v>6</v>
+      </c>
+      <c r="J546" t="n">
+        <v>5</v>
+      </c>
+      <c r="K546" t="n">
+        <v>45</v>
+      </c>
+      <c r="L546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>10</v>
+      </c>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45722.28125</v>
+      </c>
+      <c r="B547" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C547" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D547" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E547" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F547" t="n">
+        <v>4028</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H547" t="n">
+        <v>3</v>
+      </c>
+      <c r="I547" t="n">
+        <v>6</v>
+      </c>
+      <c r="J547" t="n">
+        <v>6</v>
+      </c>
+      <c r="K547" t="n">
+        <v>45</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>10</v>
+      </c>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="inlineStr"/>
+      <c r="Q547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45722.32291666666</v>
+      </c>
+      <c r="B548" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C548" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D548" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E548" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F548" t="n">
+        <v>726</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H548" t="n">
+        <v>3</v>
+      </c>
+      <c r="I548" t="n">
+        <v>6</v>
+      </c>
+      <c r="J548" t="n">
+        <v>7</v>
+      </c>
+      <c r="K548" t="n">
+        <v>45</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>10</v>
+      </c>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45722.36458333334</v>
+      </c>
+      <c r="B549" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C549" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D549" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E549" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F549" t="n">
+        <v>53</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H549" t="n">
+        <v>3</v>
+      </c>
+      <c r="I549" t="n">
+        <v>6</v>
+      </c>
+      <c r="J549" t="n">
+        <v>8</v>
+      </c>
+      <c r="K549" t="n">
+        <v>45</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>10</v>
+      </c>
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45722.40625</v>
+      </c>
+      <c r="B550" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="C550" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="D550" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="E550" t="n">
+        <v>21.97999954223633</v>
+      </c>
+      <c r="F550" t="n">
+        <v>848</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H550" t="n">
+        <v>3</v>
+      </c>
+      <c r="I550" t="n">
+        <v>6</v>
+      </c>
+      <c r="J550" t="n">
+        <v>9</v>
+      </c>
+      <c r="K550" t="n">
+        <v>45</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>10</v>
+      </c>
+      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45723.19791666666</v>
+      </c>
+      <c r="B551" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C551" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D551" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E551" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H551" t="n">
+        <v>3</v>
+      </c>
+      <c r="I551" t="n">
+        <v>7</v>
+      </c>
+      <c r="J551" t="n">
+        <v>4</v>
+      </c>
+      <c r="K551" t="n">
+        <v>45</v>
+      </c>
+      <c r="L551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>10</v>
+      </c>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45723.23958333334</v>
+      </c>
+      <c r="B552" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C552" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D552" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E552" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2660</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H552" t="n">
+        <v>3</v>
+      </c>
+      <c r="I552" t="n">
+        <v>7</v>
+      </c>
+      <c r="J552" t="n">
+        <v>5</v>
+      </c>
+      <c r="K552" t="n">
+        <v>45</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>10</v>
+      </c>
+      <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45723.28125</v>
+      </c>
+      <c r="B553" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C553" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D553" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E553" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F553" t="n">
+        <v>372</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H553" t="n">
+        <v>3</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7</v>
+      </c>
+      <c r="J553" t="n">
+        <v>6</v>
+      </c>
+      <c r="K553" t="n">
+        <v>45</v>
+      </c>
+      <c r="L553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>10</v>
+      </c>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45723.32291666666</v>
+      </c>
+      <c r="B554" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C554" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D554" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E554" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F554" t="n">
+        <v>649</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H554" t="n">
+        <v>3</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7</v>
+      </c>
+      <c r="J554" t="n">
+        <v>7</v>
+      </c>
+      <c r="K554" t="n">
+        <v>45</v>
+      </c>
+      <c r="L554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M554" t="n">
+        <v>10</v>
+      </c>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45723.36458333334</v>
+      </c>
+      <c r="B555" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C555" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D555" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E555" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F555" t="n">
+        <v>416</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H555" t="n">
+        <v>3</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7</v>
+      </c>
+      <c r="J555" t="n">
+        <v>8</v>
+      </c>
+      <c r="K555" t="n">
+        <v>45</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>10</v>
+      </c>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45723.40625</v>
+      </c>
+      <c r="B556" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="C556" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="D556" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E556" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F556" t="n">
+        <v>30734</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H556" t="n">
+        <v>3</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7</v>
+      </c>
+      <c r="J556" t="n">
+        <v>9</v>
+      </c>
+      <c r="K556" t="n">
+        <v>45</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>10</v>
+      </c>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q556"/>
+  <dimension ref="A1:Q639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27325,6 +27325,3741 @@
       <c r="P556" t="inlineStr"/>
       <c r="Q556" t="inlineStr"/>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45726.19791666666</v>
+      </c>
+      <c r="B557" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C557" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D557" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="E557" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H557" t="n">
+        <v>3</v>
+      </c>
+      <c r="I557" t="n">
+        <v>10</v>
+      </c>
+      <c r="J557" t="n">
+        <v>4</v>
+      </c>
+      <c r="K557" t="n">
+        <v>45</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>11</v>
+      </c>
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45726.23958333334</v>
+      </c>
+      <c r="B558" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C558" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D558" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="E558" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F558" t="n">
+        <v>319</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H558" t="n">
+        <v>3</v>
+      </c>
+      <c r="I558" t="n">
+        <v>10</v>
+      </c>
+      <c r="J558" t="n">
+        <v>5</v>
+      </c>
+      <c r="K558" t="n">
+        <v>45</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>11</v>
+      </c>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45726.28125</v>
+      </c>
+      <c r="B559" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C559" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D559" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="E559" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F559" t="n">
+        <v>160</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H559" t="n">
+        <v>3</v>
+      </c>
+      <c r="I559" t="n">
+        <v>10</v>
+      </c>
+      <c r="J559" t="n">
+        <v>6</v>
+      </c>
+      <c r="K559" t="n">
+        <v>45</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>11</v>
+      </c>
+      <c r="N559" t="inlineStr"/>
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45726.36458333334</v>
+      </c>
+      <c r="B560" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C560" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D560" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="E560" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F560" t="n">
+        <v>606</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H560" t="n">
+        <v>3</v>
+      </c>
+      <c r="I560" t="n">
+        <v>10</v>
+      </c>
+      <c r="J560" t="n">
+        <v>8</v>
+      </c>
+      <c r="K560" t="n">
+        <v>45</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>11</v>
+      </c>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45726.40625</v>
+      </c>
+      <c r="B561" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C561" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D561" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="E561" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="F561" t="n">
+        <v>160</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H561" t="n">
+        <v>3</v>
+      </c>
+      <c r="I561" t="n">
+        <v>10</v>
+      </c>
+      <c r="J561" t="n">
+        <v>9</v>
+      </c>
+      <c r="K561" t="n">
+        <v>45</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>11</v>
+      </c>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45727.19791666666</v>
+      </c>
+      <c r="B562" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C562" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D562" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E562" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F562" t="n">
+        <v>6443</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H562" t="n">
+        <v>3</v>
+      </c>
+      <c r="I562" t="n">
+        <v>11</v>
+      </c>
+      <c r="J562" t="n">
+        <v>4</v>
+      </c>
+      <c r="K562" t="n">
+        <v>45</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>11</v>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45727.23958333334</v>
+      </c>
+      <c r="B563" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C563" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D563" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E563" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F563" t="n">
+        <v>5932</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H563" t="n">
+        <v>3</v>
+      </c>
+      <c r="I563" t="n">
+        <v>11</v>
+      </c>
+      <c r="J563" t="n">
+        <v>5</v>
+      </c>
+      <c r="K563" t="n">
+        <v>45</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" t="n">
+        <v>11</v>
+      </c>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45727.28125</v>
+      </c>
+      <c r="B564" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C564" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D564" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E564" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F564" t="n">
+        <v>193</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H564" t="n">
+        <v>3</v>
+      </c>
+      <c r="I564" t="n">
+        <v>11</v>
+      </c>
+      <c r="J564" t="n">
+        <v>6</v>
+      </c>
+      <c r="K564" t="n">
+        <v>45</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" t="n">
+        <v>11</v>
+      </c>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45727.32291666666</v>
+      </c>
+      <c r="B565" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C565" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D565" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E565" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F565" t="n">
+        <v>153</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H565" t="n">
+        <v>3</v>
+      </c>
+      <c r="I565" t="n">
+        <v>11</v>
+      </c>
+      <c r="J565" t="n">
+        <v>7</v>
+      </c>
+      <c r="K565" t="n">
+        <v>45</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" t="n">
+        <v>11</v>
+      </c>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45727.36458333334</v>
+      </c>
+      <c r="B566" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C566" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D566" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E566" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F566" t="n">
+        <v>173</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H566" t="n">
+        <v>3</v>
+      </c>
+      <c r="I566" t="n">
+        <v>11</v>
+      </c>
+      <c r="J566" t="n">
+        <v>8</v>
+      </c>
+      <c r="K566" t="n">
+        <v>45</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>11</v>
+      </c>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45727.40625</v>
+      </c>
+      <c r="B567" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C567" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="D567" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E567" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2303</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H567" t="n">
+        <v>3</v>
+      </c>
+      <c r="I567" t="n">
+        <v>11</v>
+      </c>
+      <c r="J567" t="n">
+        <v>9</v>
+      </c>
+      <c r="K567" t="n">
+        <v>45</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" t="n">
+        <v>11</v>
+      </c>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45728.19791666666</v>
+      </c>
+      <c r="B568" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C568" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D568" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E568" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H568" t="n">
+        <v>3</v>
+      </c>
+      <c r="I568" t="n">
+        <v>12</v>
+      </c>
+      <c r="J568" t="n">
+        <v>4</v>
+      </c>
+      <c r="K568" t="n">
+        <v>45</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>11</v>
+      </c>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
+      <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45728.23958333334</v>
+      </c>
+      <c r="B569" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C569" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D569" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E569" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F569" t="n">
+        <v>615</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H569" t="n">
+        <v>3</v>
+      </c>
+      <c r="I569" t="n">
+        <v>12</v>
+      </c>
+      <c r="J569" t="n">
+        <v>5</v>
+      </c>
+      <c r="K569" t="n">
+        <v>45</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>11</v>
+      </c>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
+      <c r="P569" t="inlineStr"/>
+      <c r="Q569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45728.28125</v>
+      </c>
+      <c r="B570" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C570" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D570" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E570" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F570" t="n">
+        <v>262</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H570" t="n">
+        <v>3</v>
+      </c>
+      <c r="I570" t="n">
+        <v>12</v>
+      </c>
+      <c r="J570" t="n">
+        <v>6</v>
+      </c>
+      <c r="K570" t="n">
+        <v>45</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>11</v>
+      </c>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
+      <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45728.32291666666</v>
+      </c>
+      <c r="B571" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C571" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D571" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E571" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F571" t="n">
+        <v>717</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H571" t="n">
+        <v>3</v>
+      </c>
+      <c r="I571" t="n">
+        <v>12</v>
+      </c>
+      <c r="J571" t="n">
+        <v>7</v>
+      </c>
+      <c r="K571" t="n">
+        <v>45</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>11</v>
+      </c>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
+      <c r="P571" t="inlineStr"/>
+      <c r="Q571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45728.36458333334</v>
+      </c>
+      <c r="B572" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C572" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D572" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E572" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F572" t="n">
+        <v>52</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H572" t="n">
+        <v>3</v>
+      </c>
+      <c r="I572" t="n">
+        <v>12</v>
+      </c>
+      <c r="J572" t="n">
+        <v>8</v>
+      </c>
+      <c r="K572" t="n">
+        <v>45</v>
+      </c>
+      <c r="L572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" t="n">
+        <v>11</v>
+      </c>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45728.40625</v>
+      </c>
+      <c r="B573" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="C573" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="D573" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="E573" t="n">
+        <v>20.29000091552734</v>
+      </c>
+      <c r="F573" t="n">
+        <v>387</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H573" t="n">
+        <v>3</v>
+      </c>
+      <c r="I573" t="n">
+        <v>12</v>
+      </c>
+      <c r="J573" t="n">
+        <v>9</v>
+      </c>
+      <c r="K573" t="n">
+        <v>45</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>11</v>
+      </c>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="inlineStr"/>
+      <c r="Q573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45729.19791666666</v>
+      </c>
+      <c r="B574" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C574" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D574" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E574" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H574" t="n">
+        <v>3</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13</v>
+      </c>
+      <c r="J574" t="n">
+        <v>4</v>
+      </c>
+      <c r="K574" t="n">
+        <v>45</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>11</v>
+      </c>
+      <c r="N574" t="inlineStr"/>
+      <c r="O574" t="inlineStr"/>
+      <c r="P574" t="inlineStr"/>
+      <c r="Q574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45729.23958333334</v>
+      </c>
+      <c r="B575" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C575" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D575" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E575" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F575" t="n">
+        <v>527</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H575" t="n">
+        <v>3</v>
+      </c>
+      <c r="I575" t="n">
+        <v>13</v>
+      </c>
+      <c r="J575" t="n">
+        <v>5</v>
+      </c>
+      <c r="K575" t="n">
+        <v>45</v>
+      </c>
+      <c r="L575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" t="n">
+        <v>11</v>
+      </c>
+      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="inlineStr"/>
+      <c r="Q575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45729.28125</v>
+      </c>
+      <c r="B576" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C576" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D576" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E576" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F576" t="n">
+        <v>345</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H576" t="n">
+        <v>3</v>
+      </c>
+      <c r="I576" t="n">
+        <v>13</v>
+      </c>
+      <c r="J576" t="n">
+        <v>6</v>
+      </c>
+      <c r="K576" t="n">
+        <v>45</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>11</v>
+      </c>
+      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="inlineStr"/>
+      <c r="Q576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45729.32291666666</v>
+      </c>
+      <c r="B577" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C577" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D577" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E577" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F577" t="n">
+        <v>261</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H577" t="n">
+        <v>3</v>
+      </c>
+      <c r="I577" t="n">
+        <v>13</v>
+      </c>
+      <c r="J577" t="n">
+        <v>7</v>
+      </c>
+      <c r="K577" t="n">
+        <v>45</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>11</v>
+      </c>
+      <c r="N577" t="inlineStr"/>
+      <c r="O577" t="inlineStr"/>
+      <c r="P577" t="inlineStr"/>
+      <c r="Q577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45729.36458333334</v>
+      </c>
+      <c r="B578" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C578" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D578" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E578" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F578" t="n">
+        <v>208</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H578" t="n">
+        <v>3</v>
+      </c>
+      <c r="I578" t="n">
+        <v>13</v>
+      </c>
+      <c r="J578" t="n">
+        <v>8</v>
+      </c>
+      <c r="K578" t="n">
+        <v>45</v>
+      </c>
+      <c r="L578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" t="n">
+        <v>11</v>
+      </c>
+      <c r="N578" t="inlineStr"/>
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="inlineStr"/>
+      <c r="Q578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45729.40625</v>
+      </c>
+      <c r="B579" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C579" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D579" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E579" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F579" t="n">
+        <v>8172</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H579" t="n">
+        <v>3</v>
+      </c>
+      <c r="I579" t="n">
+        <v>13</v>
+      </c>
+      <c r="J579" t="n">
+        <v>9</v>
+      </c>
+      <c r="K579" t="n">
+        <v>45</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>11</v>
+      </c>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B580" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C580" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D580" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E580" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F580" t="n">
+        <v>9299</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H580" t="n">
+        <v>3</v>
+      </c>
+      <c r="I580" t="n">
+        <v>17</v>
+      </c>
+      <c r="J580" t="n">
+        <v>4</v>
+      </c>
+      <c r="K580" t="n">
+        <v>45</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>12</v>
+      </c>
+      <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B581" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C581" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D581" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E581" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F581" t="n">
+        <v>9532</v>
+      </c>
+      <c r="G581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H581" t="n">
+        <v>3</v>
+      </c>
+      <c r="I581" t="n">
+        <v>17</v>
+      </c>
+      <c r="J581" t="n">
+        <v>5</v>
+      </c>
+      <c r="K581" t="n">
+        <v>45</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>12</v>
+      </c>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
+      <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45733.28125</v>
+      </c>
+      <c r="B582" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C582" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D582" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E582" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F582" t="n">
+        <v>551</v>
+      </c>
+      <c r="G582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H582" t="n">
+        <v>3</v>
+      </c>
+      <c r="I582" t="n">
+        <v>17</v>
+      </c>
+      <c r="J582" t="n">
+        <v>6</v>
+      </c>
+      <c r="K582" t="n">
+        <v>45</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>12</v>
+      </c>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
+      <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B583" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C583" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D583" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E583" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F583" t="n">
+        <v>430</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H583" t="n">
+        <v>3</v>
+      </c>
+      <c r="I583" t="n">
+        <v>17</v>
+      </c>
+      <c r="J583" t="n">
+        <v>7</v>
+      </c>
+      <c r="K583" t="n">
+        <v>45</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>12</v>
+      </c>
+      <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
+      <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B584" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C584" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D584" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E584" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F584" t="n">
+        <v>203</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H584" t="n">
+        <v>3</v>
+      </c>
+      <c r="I584" t="n">
+        <v>17</v>
+      </c>
+      <c r="J584" t="n">
+        <v>8</v>
+      </c>
+      <c r="K584" t="n">
+        <v>45</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>12</v>
+      </c>
+      <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
+      <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45733.40625</v>
+      </c>
+      <c r="B585" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C585" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D585" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E585" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1419</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H585" t="n">
+        <v>3</v>
+      </c>
+      <c r="I585" t="n">
+        <v>17</v>
+      </c>
+      <c r="J585" t="n">
+        <v>9</v>
+      </c>
+      <c r="K585" t="n">
+        <v>45</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>12</v>
+      </c>
+      <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
+      <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B586" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C586" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D586" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E586" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F586" t="n">
+        <v>5770</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H586" t="n">
+        <v>3</v>
+      </c>
+      <c r="I586" t="n">
+        <v>18</v>
+      </c>
+      <c r="J586" t="n">
+        <v>4</v>
+      </c>
+      <c r="K586" t="n">
+        <v>45</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>12</v>
+      </c>
+      <c r="N586" t="inlineStr"/>
+      <c r="O586" t="inlineStr"/>
+      <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B587" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C587" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D587" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E587" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F587" t="n">
+        <v>12252</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H587" t="n">
+        <v>3</v>
+      </c>
+      <c r="I587" t="n">
+        <v>18</v>
+      </c>
+      <c r="J587" t="n">
+        <v>5</v>
+      </c>
+      <c r="K587" t="n">
+        <v>45</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>12</v>
+      </c>
+      <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
+      <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45734.28125</v>
+      </c>
+      <c r="B588" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C588" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D588" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E588" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F588" t="n">
+        <v>38501</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H588" t="n">
+        <v>3</v>
+      </c>
+      <c r="I588" t="n">
+        <v>18</v>
+      </c>
+      <c r="J588" t="n">
+        <v>6</v>
+      </c>
+      <c r="K588" t="n">
+        <v>45</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>12</v>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
+      <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B589" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C589" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D589" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E589" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F589" t="n">
+        <v>35814</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H589" t="n">
+        <v>3</v>
+      </c>
+      <c r="I589" t="n">
+        <v>18</v>
+      </c>
+      <c r="J589" t="n">
+        <v>7</v>
+      </c>
+      <c r="K589" t="n">
+        <v>45</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>12</v>
+      </c>
+      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
+      <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B590" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="C590" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="D590" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="E590" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="F590" t="n">
+        <v>9581</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H590" t="n">
+        <v>3</v>
+      </c>
+      <c r="I590" t="n">
+        <v>18</v>
+      </c>
+      <c r="J590" t="n">
+        <v>8</v>
+      </c>
+      <c r="K590" t="n">
+        <v>45</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>12</v>
+      </c>
+      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
+      <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45734.40625</v>
+      </c>
+      <c r="B591" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="C591" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="D591" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E591" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F591" t="n">
+        <v>131629</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H591" t="n">
+        <v>3</v>
+      </c>
+      <c r="I591" t="n">
+        <v>18</v>
+      </c>
+      <c r="J591" t="n">
+        <v>9</v>
+      </c>
+      <c r="K591" t="n">
+        <v>45</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>12</v>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
+      <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45735.19791666666</v>
+      </c>
+      <c r="B592" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C592" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D592" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E592" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H592" t="n">
+        <v>3</v>
+      </c>
+      <c r="I592" t="n">
+        <v>19</v>
+      </c>
+      <c r="J592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K592" t="n">
+        <v>45</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>12</v>
+      </c>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45735.23958333334</v>
+      </c>
+      <c r="B593" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C593" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D593" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E593" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F593" t="n">
+        <v>3037</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H593" t="n">
+        <v>3</v>
+      </c>
+      <c r="I593" t="n">
+        <v>19</v>
+      </c>
+      <c r="J593" t="n">
+        <v>5</v>
+      </c>
+      <c r="K593" t="n">
+        <v>45</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>12</v>
+      </c>
+      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45735.28125</v>
+      </c>
+      <c r="B594" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C594" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D594" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E594" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F594" t="n">
+        <v>13</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H594" t="n">
+        <v>3</v>
+      </c>
+      <c r="I594" t="n">
+        <v>19</v>
+      </c>
+      <c r="J594" t="n">
+        <v>6</v>
+      </c>
+      <c r="K594" t="n">
+        <v>45</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>12</v>
+      </c>
+      <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr"/>
+      <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45735.32291666666</v>
+      </c>
+      <c r="B595" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C595" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D595" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E595" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F595" t="n">
+        <v>495</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H595" t="n">
+        <v>3</v>
+      </c>
+      <c r="I595" t="n">
+        <v>19</v>
+      </c>
+      <c r="J595" t="n">
+        <v>7</v>
+      </c>
+      <c r="K595" t="n">
+        <v>45</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>12</v>
+      </c>
+      <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr"/>
+      <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45735.36458333334</v>
+      </c>
+      <c r="B596" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C596" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D596" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E596" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F596" t="n">
+        <v>504</v>
+      </c>
+      <c r="G596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H596" t="n">
+        <v>3</v>
+      </c>
+      <c r="I596" t="n">
+        <v>19</v>
+      </c>
+      <c r="J596" t="n">
+        <v>8</v>
+      </c>
+      <c r="K596" t="n">
+        <v>45</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>12</v>
+      </c>
+      <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr"/>
+      <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45735.40625</v>
+      </c>
+      <c r="B597" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C597" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="D597" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E597" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="F597" t="n">
+        <v>5831</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H597" t="n">
+        <v>3</v>
+      </c>
+      <c r="I597" t="n">
+        <v>19</v>
+      </c>
+      <c r="J597" t="n">
+        <v>9</v>
+      </c>
+      <c r="K597" t="n">
+        <v>45</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>12</v>
+      </c>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr"/>
+      <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45736.19791666666</v>
+      </c>
+      <c r="B598" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C598" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D598" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E598" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F598" t="n">
+        <v>59298</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H598" t="n">
+        <v>3</v>
+      </c>
+      <c r="I598" t="n">
+        <v>20</v>
+      </c>
+      <c r="J598" t="n">
+        <v>4</v>
+      </c>
+      <c r="K598" t="n">
+        <v>45</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" t="n">
+        <v>12</v>
+      </c>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
+      <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45736.23958333334</v>
+      </c>
+      <c r="B599" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C599" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D599" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E599" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F599" t="n">
+        <v>45667</v>
+      </c>
+      <c r="G599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H599" t="n">
+        <v>3</v>
+      </c>
+      <c r="I599" t="n">
+        <v>20</v>
+      </c>
+      <c r="J599" t="n">
+        <v>5</v>
+      </c>
+      <c r="K599" t="n">
+        <v>45</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" t="n">
+        <v>12</v>
+      </c>
+      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
+      <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45736.28125</v>
+      </c>
+      <c r="B600" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C600" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D600" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E600" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F600" t="n">
+        <v>117215</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H600" t="n">
+        <v>3</v>
+      </c>
+      <c r="I600" t="n">
+        <v>20</v>
+      </c>
+      <c r="J600" t="n">
+        <v>6</v>
+      </c>
+      <c r="K600" t="n">
+        <v>45</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" t="n">
+        <v>12</v>
+      </c>
+      <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr"/>
+      <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45736.32291666666</v>
+      </c>
+      <c r="B601" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C601" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D601" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E601" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F601" t="n">
+        <v>13026</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H601" t="n">
+        <v>3</v>
+      </c>
+      <c r="I601" t="n">
+        <v>20</v>
+      </c>
+      <c r="J601" t="n">
+        <v>7</v>
+      </c>
+      <c r="K601" t="n">
+        <v>45</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M601" t="n">
+        <v>12</v>
+      </c>
+      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
+      <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45736.36458333334</v>
+      </c>
+      <c r="B602" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C602" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D602" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E602" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F602" t="n">
+        <v>666</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H602" t="n">
+        <v>3</v>
+      </c>
+      <c r="I602" t="n">
+        <v>20</v>
+      </c>
+      <c r="J602" t="n">
+        <v>8</v>
+      </c>
+      <c r="K602" t="n">
+        <v>45</v>
+      </c>
+      <c r="L602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>12</v>
+      </c>
+      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
+      <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45736.40625</v>
+      </c>
+      <c r="B603" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="C603" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="D603" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="E603" t="n">
+        <v>20.68000030517578</v>
+      </c>
+      <c r="F603" t="n">
+        <v>17061</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H603" t="n">
+        <v>3</v>
+      </c>
+      <c r="I603" t="n">
+        <v>20</v>
+      </c>
+      <c r="J603" t="n">
+        <v>9</v>
+      </c>
+      <c r="K603" t="n">
+        <v>45</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>12</v>
+      </c>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45737.19791666666</v>
+      </c>
+      <c r="B604" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C604" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D604" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E604" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0</v>
+      </c>
+      <c r="G604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H604" t="n">
+        <v>3</v>
+      </c>
+      <c r="I604" t="n">
+        <v>21</v>
+      </c>
+      <c r="J604" t="n">
+        <v>4</v>
+      </c>
+      <c r="K604" t="n">
+        <v>45</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>12</v>
+      </c>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45737.23958333334</v>
+      </c>
+      <c r="B605" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C605" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D605" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E605" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F605" t="n">
+        <v>906</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H605" t="n">
+        <v>3</v>
+      </c>
+      <c r="I605" t="n">
+        <v>21</v>
+      </c>
+      <c r="J605" t="n">
+        <v>5</v>
+      </c>
+      <c r="K605" t="n">
+        <v>45</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" t="n">
+        <v>12</v>
+      </c>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45737.28125</v>
+      </c>
+      <c r="B606" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C606" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D606" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E606" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F606" t="n">
+        <v>39010</v>
+      </c>
+      <c r="G606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H606" t="n">
+        <v>3</v>
+      </c>
+      <c r="I606" t="n">
+        <v>21</v>
+      </c>
+      <c r="J606" t="n">
+        <v>6</v>
+      </c>
+      <c r="K606" t="n">
+        <v>45</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M606" t="n">
+        <v>12</v>
+      </c>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr"/>
+      <c r="P606" t="inlineStr"/>
+      <c r="Q606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45737.32291666666</v>
+      </c>
+      <c r="B607" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C607" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D607" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E607" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F607" t="n">
+        <v>5463</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H607" t="n">
+        <v>3</v>
+      </c>
+      <c r="I607" t="n">
+        <v>21</v>
+      </c>
+      <c r="J607" t="n">
+        <v>7</v>
+      </c>
+      <c r="K607" t="n">
+        <v>45</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" t="n">
+        <v>12</v>
+      </c>
+      <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr"/>
+      <c r="P607" t="inlineStr"/>
+      <c r="Q607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45737.36458333334</v>
+      </c>
+      <c r="B608" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C608" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D608" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E608" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1957</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H608" t="n">
+        <v>3</v>
+      </c>
+      <c r="I608" t="n">
+        <v>21</v>
+      </c>
+      <c r="J608" t="n">
+        <v>8</v>
+      </c>
+      <c r="K608" t="n">
+        <v>45</v>
+      </c>
+      <c r="L608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M608" t="n">
+        <v>12</v>
+      </c>
+      <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr"/>
+      <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45737.40625</v>
+      </c>
+      <c r="B609" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="C609" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D609" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="E609" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F609" t="n">
+        <v>9954</v>
+      </c>
+      <c r="G609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H609" t="n">
+        <v>3</v>
+      </c>
+      <c r="I609" t="n">
+        <v>21</v>
+      </c>
+      <c r="J609" t="n">
+        <v>9</v>
+      </c>
+      <c r="K609" t="n">
+        <v>45</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M609" t="n">
+        <v>12</v>
+      </c>
+      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr"/>
+      <c r="P609" t="inlineStr"/>
+      <c r="Q609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45740.19791666666</v>
+      </c>
+      <c r="B610" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C610" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D610" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E610" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0</v>
+      </c>
+      <c r="G610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H610" t="n">
+        <v>3</v>
+      </c>
+      <c r="I610" t="n">
+        <v>24</v>
+      </c>
+      <c r="J610" t="n">
+        <v>4</v>
+      </c>
+      <c r="K610" t="n">
+        <v>45</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M610" t="n">
+        <v>13</v>
+      </c>
+      <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr"/>
+      <c r="P610" t="inlineStr"/>
+      <c r="Q610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45740.23958333334</v>
+      </c>
+      <c r="B611" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C611" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D611" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E611" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F611" t="n">
+        <v>24674</v>
+      </c>
+      <c r="G611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H611" t="n">
+        <v>3</v>
+      </c>
+      <c r="I611" t="n">
+        <v>24</v>
+      </c>
+      <c r="J611" t="n">
+        <v>5</v>
+      </c>
+      <c r="K611" t="n">
+        <v>45</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" t="n">
+        <v>13</v>
+      </c>
+      <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="inlineStr"/>
+      <c r="Q611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45740.28125</v>
+      </c>
+      <c r="B612" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="C612" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="D612" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="E612" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="F612" t="n">
+        <v>124</v>
+      </c>
+      <c r="G612" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H612" t="n">
+        <v>3</v>
+      </c>
+      <c r="I612" t="n">
+        <v>24</v>
+      </c>
+      <c r="J612" t="n">
+        <v>6</v>
+      </c>
+      <c r="K612" t="n">
+        <v>45</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>13</v>
+      </c>
+      <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr"/>
+      <c r="P612" t="inlineStr"/>
+      <c r="Q612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45740.32291666666</v>
+      </c>
+      <c r="B613" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="C613" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="D613" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="E613" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G613" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H613" t="n">
+        <v>3</v>
+      </c>
+      <c r="I613" t="n">
+        <v>24</v>
+      </c>
+      <c r="J613" t="n">
+        <v>7</v>
+      </c>
+      <c r="K613" t="n">
+        <v>45</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>13</v>
+      </c>
+      <c r="N613" t="inlineStr"/>
+      <c r="O613" t="inlineStr"/>
+      <c r="P613" t="inlineStr"/>
+      <c r="Q613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45740.36458333334</v>
+      </c>
+      <c r="B614" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="C614" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="D614" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="E614" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="F614" t="n">
+        <v>601</v>
+      </c>
+      <c r="G614" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H614" t="n">
+        <v>3</v>
+      </c>
+      <c r="I614" t="n">
+        <v>24</v>
+      </c>
+      <c r="J614" t="n">
+        <v>8</v>
+      </c>
+      <c r="K614" t="n">
+        <v>45</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>13</v>
+      </c>
+      <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr"/>
+      <c r="P614" t="inlineStr"/>
+      <c r="Q614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45740.40625</v>
+      </c>
+      <c r="B615" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="C615" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="D615" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="E615" t="n">
+        <v>21.51000022888184</v>
+      </c>
+      <c r="F615" t="n">
+        <v>321</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H615" t="n">
+        <v>3</v>
+      </c>
+      <c r="I615" t="n">
+        <v>24</v>
+      </c>
+      <c r="J615" t="n">
+        <v>9</v>
+      </c>
+      <c r="K615" t="n">
+        <v>45</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>13</v>
+      </c>
+      <c r="N615" t="inlineStr"/>
+      <c r="O615" t="inlineStr"/>
+      <c r="P615" t="inlineStr"/>
+      <c r="Q615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45741.19791666666</v>
+      </c>
+      <c r="B616" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C616" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D616" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E616" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0</v>
+      </c>
+      <c r="G616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H616" t="n">
+        <v>3</v>
+      </c>
+      <c r="I616" t="n">
+        <v>25</v>
+      </c>
+      <c r="J616" t="n">
+        <v>4</v>
+      </c>
+      <c r="K616" t="n">
+        <v>45</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>13</v>
+      </c>
+      <c r="N616" t="inlineStr"/>
+      <c r="O616" t="inlineStr"/>
+      <c r="P616" t="inlineStr"/>
+      <c r="Q616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45741.23958333334</v>
+      </c>
+      <c r="B617" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C617" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D617" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E617" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2334</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H617" t="n">
+        <v>3</v>
+      </c>
+      <c r="I617" t="n">
+        <v>25</v>
+      </c>
+      <c r="J617" t="n">
+        <v>5</v>
+      </c>
+      <c r="K617" t="n">
+        <v>45</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>13</v>
+      </c>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr"/>
+      <c r="P617" t="inlineStr"/>
+      <c r="Q617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45741.28125</v>
+      </c>
+      <c r="B618" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C618" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D618" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E618" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F618" t="n">
+        <v>703</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H618" t="n">
+        <v>3</v>
+      </c>
+      <c r="I618" t="n">
+        <v>25</v>
+      </c>
+      <c r="J618" t="n">
+        <v>6</v>
+      </c>
+      <c r="K618" t="n">
+        <v>45</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>13</v>
+      </c>
+      <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
+      <c r="Q618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B619" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C619" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D619" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E619" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F619" t="n">
+        <v>223</v>
+      </c>
+      <c r="G619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H619" t="n">
+        <v>3</v>
+      </c>
+      <c r="I619" t="n">
+        <v>25</v>
+      </c>
+      <c r="J619" t="n">
+        <v>7</v>
+      </c>
+      <c r="K619" t="n">
+        <v>45</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>13</v>
+      </c>
+      <c r="N619" t="inlineStr"/>
+      <c r="O619" t="inlineStr"/>
+      <c r="P619" t="inlineStr"/>
+      <c r="Q619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B620" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C620" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D620" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E620" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2133</v>
+      </c>
+      <c r="G620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H620" t="n">
+        <v>3</v>
+      </c>
+      <c r="I620" t="n">
+        <v>25</v>
+      </c>
+      <c r="J620" t="n">
+        <v>8</v>
+      </c>
+      <c r="K620" t="n">
+        <v>45</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>13</v>
+      </c>
+      <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr"/>
+      <c r="P620" t="inlineStr"/>
+      <c r="Q620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45741.40625</v>
+      </c>
+      <c r="B621" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="C621" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="D621" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="E621" t="n">
+        <v>21.94000053405762</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2715</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H621" t="n">
+        <v>3</v>
+      </c>
+      <c r="I621" t="n">
+        <v>25</v>
+      </c>
+      <c r="J621" t="n">
+        <v>9</v>
+      </c>
+      <c r="K621" t="n">
+        <v>45</v>
+      </c>
+      <c r="L621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M621" t="n">
+        <v>13</v>
+      </c>
+      <c r="N621" t="inlineStr"/>
+      <c r="O621" t="inlineStr"/>
+      <c r="P621" t="inlineStr"/>
+      <c r="Q621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45742.19791666666</v>
+      </c>
+      <c r="B622" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C622" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D622" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E622" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H622" t="n">
+        <v>3</v>
+      </c>
+      <c r="I622" t="n">
+        <v>26</v>
+      </c>
+      <c r="J622" t="n">
+        <v>4</v>
+      </c>
+      <c r="K622" t="n">
+        <v>45</v>
+      </c>
+      <c r="L622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M622" t="n">
+        <v>13</v>
+      </c>
+      <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
+      <c r="Q622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45742.23958333334</v>
+      </c>
+      <c r="B623" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C623" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D623" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E623" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F623" t="n">
+        <v>3691</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H623" t="n">
+        <v>3</v>
+      </c>
+      <c r="I623" t="n">
+        <v>26</v>
+      </c>
+      <c r="J623" t="n">
+        <v>5</v>
+      </c>
+      <c r="K623" t="n">
+        <v>45</v>
+      </c>
+      <c r="L623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M623" t="n">
+        <v>13</v>
+      </c>
+      <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45742.28125</v>
+      </c>
+      <c r="B624" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C624" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D624" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E624" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F624" t="n">
+        <v>967</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H624" t="n">
+        <v>3</v>
+      </c>
+      <c r="I624" t="n">
+        <v>26</v>
+      </c>
+      <c r="J624" t="n">
+        <v>6</v>
+      </c>
+      <c r="K624" t="n">
+        <v>45</v>
+      </c>
+      <c r="L624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M624" t="n">
+        <v>13</v>
+      </c>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45742.32291666666</v>
+      </c>
+      <c r="B625" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C625" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D625" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E625" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2978</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H625" t="n">
+        <v>3</v>
+      </c>
+      <c r="I625" t="n">
+        <v>26</v>
+      </c>
+      <c r="J625" t="n">
+        <v>7</v>
+      </c>
+      <c r="K625" t="n">
+        <v>45</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M625" t="n">
+        <v>13</v>
+      </c>
+      <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45742.36458333334</v>
+      </c>
+      <c r="B626" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C626" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D626" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E626" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2614</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H626" t="n">
+        <v>3</v>
+      </c>
+      <c r="I626" t="n">
+        <v>26</v>
+      </c>
+      <c r="J626" t="n">
+        <v>8</v>
+      </c>
+      <c r="K626" t="n">
+        <v>45</v>
+      </c>
+      <c r="L626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M626" t="n">
+        <v>13</v>
+      </c>
+      <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45742.40625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="C627" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="D627" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="E627" t="n">
+        <v>22.3700008392334</v>
+      </c>
+      <c r="F627" t="n">
+        <v>555</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H627" t="n">
+        <v>3</v>
+      </c>
+      <c r="I627" t="n">
+        <v>26</v>
+      </c>
+      <c r="J627" t="n">
+        <v>9</v>
+      </c>
+      <c r="K627" t="n">
+        <v>45</v>
+      </c>
+      <c r="L627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M627" t="n">
+        <v>13</v>
+      </c>
+      <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45743.19791666666</v>
+      </c>
+      <c r="B628" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C628" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D628" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E628" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H628" t="n">
+        <v>3</v>
+      </c>
+      <c r="I628" t="n">
+        <v>27</v>
+      </c>
+      <c r="J628" t="n">
+        <v>4</v>
+      </c>
+      <c r="K628" t="n">
+        <v>45</v>
+      </c>
+      <c r="L628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M628" t="n">
+        <v>13</v>
+      </c>
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
+      <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45743.23958333334</v>
+      </c>
+      <c r="B629" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C629" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D629" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E629" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F629" t="n">
+        <v>6532</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H629" t="n">
+        <v>3</v>
+      </c>
+      <c r="I629" t="n">
+        <v>27</v>
+      </c>
+      <c r="J629" t="n">
+        <v>5</v>
+      </c>
+      <c r="K629" t="n">
+        <v>45</v>
+      </c>
+      <c r="L629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M629" t="n">
+        <v>13</v>
+      </c>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45743.28125</v>
+      </c>
+      <c r="B630" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C630" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D630" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E630" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F630" t="n">
+        <v>4146</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H630" t="n">
+        <v>3</v>
+      </c>
+      <c r="I630" t="n">
+        <v>27</v>
+      </c>
+      <c r="J630" t="n">
+        <v>6</v>
+      </c>
+      <c r="K630" t="n">
+        <v>45</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M630" t="n">
+        <v>13</v>
+      </c>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45743.32291666666</v>
+      </c>
+      <c r="B631" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C631" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D631" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E631" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F631" t="n">
+        <v>6885</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H631" t="n">
+        <v>3</v>
+      </c>
+      <c r="I631" t="n">
+        <v>27</v>
+      </c>
+      <c r="J631" t="n">
+        <v>7</v>
+      </c>
+      <c r="K631" t="n">
+        <v>45</v>
+      </c>
+      <c r="L631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M631" t="n">
+        <v>13</v>
+      </c>
+      <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45743.36458333334</v>
+      </c>
+      <c r="B632" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C632" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D632" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E632" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F632" t="n">
+        <v>3129</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H632" t="n">
+        <v>3</v>
+      </c>
+      <c r="I632" t="n">
+        <v>27</v>
+      </c>
+      <c r="J632" t="n">
+        <v>8</v>
+      </c>
+      <c r="K632" t="n">
+        <v>45</v>
+      </c>
+      <c r="L632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M632" t="n">
+        <v>13</v>
+      </c>
+      <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
+      <c r="Q632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45743.40625</v>
+      </c>
+      <c r="B633" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="C633" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="D633" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="E633" t="n">
+        <v>22.80999946594238</v>
+      </c>
+      <c r="F633" t="n">
+        <v>5893</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H633" t="n">
+        <v>3</v>
+      </c>
+      <c r="I633" t="n">
+        <v>27</v>
+      </c>
+      <c r="J633" t="n">
+        <v>9</v>
+      </c>
+      <c r="K633" t="n">
+        <v>45</v>
+      </c>
+      <c r="L633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M633" t="n">
+        <v>13</v>
+      </c>
+      <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
+      <c r="P633" t="inlineStr"/>
+      <c r="Q633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45744.19791666666</v>
+      </c>
+      <c r="B634" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C634" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D634" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E634" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H634" t="n">
+        <v>3</v>
+      </c>
+      <c r="I634" t="n">
+        <v>28</v>
+      </c>
+      <c r="J634" t="n">
+        <v>4</v>
+      </c>
+      <c r="K634" t="n">
+        <v>45</v>
+      </c>
+      <c r="L634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M634" t="n">
+        <v>13</v>
+      </c>
+      <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45744.23958333334</v>
+      </c>
+      <c r="B635" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C635" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D635" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E635" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2259</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H635" t="n">
+        <v>3</v>
+      </c>
+      <c r="I635" t="n">
+        <v>28</v>
+      </c>
+      <c r="J635" t="n">
+        <v>5</v>
+      </c>
+      <c r="K635" t="n">
+        <v>45</v>
+      </c>
+      <c r="L635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M635" t="n">
+        <v>13</v>
+      </c>
+      <c r="N635" t="inlineStr"/>
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="inlineStr"/>
+      <c r="Q635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45744.28125</v>
+      </c>
+      <c r="B636" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C636" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D636" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E636" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F636" t="n">
+        <v>367</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H636" t="n">
+        <v>3</v>
+      </c>
+      <c r="I636" t="n">
+        <v>28</v>
+      </c>
+      <c r="J636" t="n">
+        <v>6</v>
+      </c>
+      <c r="K636" t="n">
+        <v>45</v>
+      </c>
+      <c r="L636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M636" t="n">
+        <v>13</v>
+      </c>
+      <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
+      <c r="P636" t="inlineStr"/>
+      <c r="Q636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45744.32291666666</v>
+      </c>
+      <c r="B637" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C637" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D637" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E637" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F637" t="n">
+        <v>10070</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H637" t="n">
+        <v>3</v>
+      </c>
+      <c r="I637" t="n">
+        <v>28</v>
+      </c>
+      <c r="J637" t="n">
+        <v>7</v>
+      </c>
+      <c r="K637" t="n">
+        <v>45</v>
+      </c>
+      <c r="L637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M637" t="n">
+        <v>13</v>
+      </c>
+      <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
+      <c r="Q637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45744.36458333334</v>
+      </c>
+      <c r="B638" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C638" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D638" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E638" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F638" t="n">
+        <v>6175</v>
+      </c>
+      <c r="G638" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H638" t="n">
+        <v>3</v>
+      </c>
+      <c r="I638" t="n">
+        <v>28</v>
+      </c>
+      <c r="J638" t="n">
+        <v>8</v>
+      </c>
+      <c r="K638" t="n">
+        <v>45</v>
+      </c>
+      <c r="L638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" t="n">
+        <v>13</v>
+      </c>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="inlineStr"/>
+      <c r="Q638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45744.40625</v>
+      </c>
+      <c r="B639" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="C639" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D639" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E639" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F639" t="n">
+        <v>2108</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H639" t="n">
+        <v>3</v>
+      </c>
+      <c r="I639" t="n">
+        <v>28</v>
+      </c>
+      <c r="J639" t="n">
+        <v>9</v>
+      </c>
+      <c r="K639" t="n">
+        <v>45</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>13</v>
+      </c>
+      <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="inlineStr"/>
+      <c r="Q639" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MERCTRD.BO.xlsx
+++ b/stock_historical_data/60m/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q639"/>
+  <dimension ref="A1:Q714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31060,6 +31060,3381 @@
       <c r="P639" t="inlineStr"/>
       <c r="Q639" t="inlineStr"/>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45748.15625</v>
+      </c>
+      <c r="B640" t="n">
+        <v>24.42000007629395</v>
+      </c>
+      <c r="C640" t="n">
+        <v>24.42000007629395</v>
+      </c>
+      <c r="D640" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="E640" t="n">
+        <v>24.34000015258789</v>
+      </c>
+      <c r="F640" t="n">
+        <v>72794</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H640" t="n">
+        <v>4</v>
+      </c>
+      <c r="I640" t="n">
+        <v>1</v>
+      </c>
+      <c r="J640" t="n">
+        <v>3</v>
+      </c>
+      <c r="K640" t="n">
+        <v>45</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>14</v>
+      </c>
+      <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="inlineStr"/>
+      <c r="Q640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45748.19791666666</v>
+      </c>
+      <c r="B641" t="n">
+        <v>24.35000038146973</v>
+      </c>
+      <c r="C641" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="D641" t="n">
+        <v>23.48999977111816</v>
+      </c>
+      <c r="E641" t="n">
+        <v>24</v>
+      </c>
+      <c r="F641" t="n">
+        <v>20818</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H641" t="n">
+        <v>4</v>
+      </c>
+      <c r="I641" t="n">
+        <v>1</v>
+      </c>
+      <c r="J641" t="n">
+        <v>4</v>
+      </c>
+      <c r="K641" t="n">
+        <v>45</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>14</v>
+      </c>
+      <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="inlineStr"/>
+      <c r="Q641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45748.23958333334</v>
+      </c>
+      <c r="B642" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C642" t="n">
+        <v>24</v>
+      </c>
+      <c r="D642" t="n">
+        <v>23</v>
+      </c>
+      <c r="E642" t="n">
+        <v>23</v>
+      </c>
+      <c r="F642" t="n">
+        <v>9261</v>
+      </c>
+      <c r="G642" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H642" t="n">
+        <v>4</v>
+      </c>
+      <c r="I642" t="n">
+        <v>1</v>
+      </c>
+      <c r="J642" t="n">
+        <v>5</v>
+      </c>
+      <c r="K642" t="n">
+        <v>45</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>14</v>
+      </c>
+      <c r="N642" t="inlineStr"/>
+      <c r="O642" t="inlineStr"/>
+      <c r="P642" t="inlineStr"/>
+      <c r="Q642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45748.28125</v>
+      </c>
+      <c r="B643" t="n">
+        <v>23.36000061035156</v>
+      </c>
+      <c r="C643" t="n">
+        <v>23.47999954223633</v>
+      </c>
+      <c r="D643" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="E643" t="n">
+        <v>22.11000061035156</v>
+      </c>
+      <c r="F643" t="n">
+        <v>40670</v>
+      </c>
+      <c r="G643" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H643" t="n">
+        <v>4</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1</v>
+      </c>
+      <c r="J643" t="n">
+        <v>6</v>
+      </c>
+      <c r="K643" t="n">
+        <v>45</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>14</v>
+      </c>
+      <c r="N643" t="inlineStr"/>
+      <c r="O643" t="inlineStr"/>
+      <c r="P643" t="inlineStr"/>
+      <c r="Q643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45748.32291666666</v>
+      </c>
+      <c r="B644" t="n">
+        <v>23.42000007629395</v>
+      </c>
+      <c r="C644" t="n">
+        <v>23.42000007629395</v>
+      </c>
+      <c r="D644" t="n">
+        <v>22.11000061035156</v>
+      </c>
+      <c r="E644" t="n">
+        <v>23</v>
+      </c>
+      <c r="F644" t="n">
+        <v>3834</v>
+      </c>
+      <c r="G644" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H644" t="n">
+        <v>4</v>
+      </c>
+      <c r="I644" t="n">
+        <v>1</v>
+      </c>
+      <c r="J644" t="n">
+        <v>7</v>
+      </c>
+      <c r="K644" t="n">
+        <v>45</v>
+      </c>
+      <c r="L644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" t="n">
+        <v>14</v>
+      </c>
+      <c r="N644" t="inlineStr"/>
+      <c r="O644" t="inlineStr"/>
+      <c r="P644" t="inlineStr"/>
+      <c r="Q644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45748.36458333334</v>
+      </c>
+      <c r="B645" t="n">
+        <v>22.84000015258789</v>
+      </c>
+      <c r="C645" t="n">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="D645" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="E645" t="n">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="F645" t="n">
+        <v>18255</v>
+      </c>
+      <c r="G645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H645" t="n">
+        <v>4</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1</v>
+      </c>
+      <c r="J645" t="n">
+        <v>8</v>
+      </c>
+      <c r="K645" t="n">
+        <v>45</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" t="n">
+        <v>14</v>
+      </c>
+      <c r="N645" t="inlineStr"/>
+      <c r="O645" t="inlineStr"/>
+      <c r="P645" t="inlineStr"/>
+      <c r="Q645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45748.40625</v>
+      </c>
+      <c r="B646" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C646" t="n">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="D646" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="E646" t="n">
+        <v>22.32999992370605</v>
+      </c>
+      <c r="F646" t="n">
+        <v>7915</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H646" t="n">
+        <v>4</v>
+      </c>
+      <c r="I646" t="n">
+        <v>1</v>
+      </c>
+      <c r="J646" t="n">
+        <v>9</v>
+      </c>
+      <c r="K646" t="n">
+        <v>45</v>
+      </c>
+      <c r="L646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M646" t="n">
+        <v>14</v>
+      </c>
+      <c r="N646" t="inlineStr"/>
+      <c r="O646" t="inlineStr"/>
+      <c r="P646" t="inlineStr"/>
+      <c r="Q646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45749.15625</v>
+      </c>
+      <c r="B647" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C647" t="n">
+        <v>21.98999977111816</v>
+      </c>
+      <c r="D647" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E647" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F647" t="n">
+        <v>47810</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H647" t="n">
+        <v>4</v>
+      </c>
+      <c r="I647" t="n">
+        <v>2</v>
+      </c>
+      <c r="J647" t="n">
+        <v>3</v>
+      </c>
+      <c r="K647" t="n">
+        <v>45</v>
+      </c>
+      <c r="L647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M647" t="n">
+        <v>14</v>
+      </c>
+      <c r="N647" t="inlineStr"/>
+      <c r="O647" t="inlineStr"/>
+      <c r="P647" t="inlineStr"/>
+      <c r="Q647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45749.19791666666</v>
+      </c>
+      <c r="B648" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C648" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D648" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E648" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2086</v>
+      </c>
+      <c r="G648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H648" t="n">
+        <v>4</v>
+      </c>
+      <c r="I648" t="n">
+        <v>2</v>
+      </c>
+      <c r="J648" t="n">
+        <v>4</v>
+      </c>
+      <c r="K648" t="n">
+        <v>45</v>
+      </c>
+      <c r="L648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M648" t="n">
+        <v>14</v>
+      </c>
+      <c r="N648" t="inlineStr"/>
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="inlineStr"/>
+      <c r="Q648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45749.23958333334</v>
+      </c>
+      <c r="B649" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C649" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D649" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E649" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F649" t="n">
+        <v>8534</v>
+      </c>
+      <c r="G649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H649" t="n">
+        <v>4</v>
+      </c>
+      <c r="I649" t="n">
+        <v>2</v>
+      </c>
+      <c r="J649" t="n">
+        <v>5</v>
+      </c>
+      <c r="K649" t="n">
+        <v>45</v>
+      </c>
+      <c r="L649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M649" t="n">
+        <v>14</v>
+      </c>
+      <c r="N649" t="inlineStr"/>
+      <c r="O649" t="inlineStr"/>
+      <c r="P649" t="inlineStr"/>
+      <c r="Q649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45749.28125</v>
+      </c>
+      <c r="B650" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C650" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D650" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E650" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H650" t="n">
+        <v>4</v>
+      </c>
+      <c r="I650" t="n">
+        <v>2</v>
+      </c>
+      <c r="J650" t="n">
+        <v>6</v>
+      </c>
+      <c r="K650" t="n">
+        <v>45</v>
+      </c>
+      <c r="L650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M650" t="n">
+        <v>14</v>
+      </c>
+      <c r="N650" t="inlineStr"/>
+      <c r="O650" t="inlineStr"/>
+      <c r="P650" t="inlineStr"/>
+      <c r="Q650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45749.32291666666</v>
+      </c>
+      <c r="B651" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C651" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D651" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E651" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1792</v>
+      </c>
+      <c r="G651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H651" t="n">
+        <v>4</v>
+      </c>
+      <c r="I651" t="n">
+        <v>2</v>
+      </c>
+      <c r="J651" t="n">
+        <v>7</v>
+      </c>
+      <c r="K651" t="n">
+        <v>45</v>
+      </c>
+      <c r="L651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M651" t="n">
+        <v>14</v>
+      </c>
+      <c r="N651" t="inlineStr"/>
+      <c r="O651" t="inlineStr"/>
+      <c r="P651" t="inlineStr"/>
+      <c r="Q651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45749.36458333334</v>
+      </c>
+      <c r="B652" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C652" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D652" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E652" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F652" t="n">
+        <v>8198</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H652" t="n">
+        <v>4</v>
+      </c>
+      <c r="I652" t="n">
+        <v>2</v>
+      </c>
+      <c r="J652" t="n">
+        <v>8</v>
+      </c>
+      <c r="K652" t="n">
+        <v>45</v>
+      </c>
+      <c r="L652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M652" t="n">
+        <v>14</v>
+      </c>
+      <c r="N652" t="inlineStr"/>
+      <c r="O652" t="inlineStr"/>
+      <c r="P652" t="inlineStr"/>
+      <c r="Q652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45749.40625</v>
+      </c>
+      <c r="B653" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="C653" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="D653" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="E653" t="n">
+        <v>21.21999931335449</v>
+      </c>
+      <c r="F653" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H653" t="n">
+        <v>4</v>
+      </c>
+      <c r="I653" t="n">
+        <v>2</v>
+      </c>
+      <c r="J653" t="n">
+        <v>9</v>
+      </c>
+      <c r="K653" t="n">
+        <v>45</v>
+      </c>
+      <c r="L653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M653" t="n">
+        <v>14</v>
+      </c>
+      <c r="N653" t="inlineStr"/>
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="inlineStr"/>
+      <c r="Q653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45750.15625</v>
+      </c>
+      <c r="B654" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C654" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D654" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E654" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2652</v>
+      </c>
+      <c r="G654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H654" t="n">
+        <v>4</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3</v>
+      </c>
+      <c r="J654" t="n">
+        <v>3</v>
+      </c>
+      <c r="K654" t="n">
+        <v>45</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M654" t="n">
+        <v>14</v>
+      </c>
+      <c r="N654" t="inlineStr"/>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr"/>
+      <c r="Q654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45750.19791666666</v>
+      </c>
+      <c r="B655" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C655" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D655" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E655" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1284</v>
+      </c>
+      <c r="G655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H655" t="n">
+        <v>4</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3</v>
+      </c>
+      <c r="J655" t="n">
+        <v>4</v>
+      </c>
+      <c r="K655" t="n">
+        <v>45</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M655" t="n">
+        <v>14</v>
+      </c>
+      <c r="N655" t="inlineStr"/>
+      <c r="O655" t="inlineStr"/>
+      <c r="P655" t="inlineStr"/>
+      <c r="Q655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45750.23958333334</v>
+      </c>
+      <c r="B656" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C656" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D656" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E656" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F656" t="n">
+        <v>3561</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H656" t="n">
+        <v>4</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3</v>
+      </c>
+      <c r="J656" t="n">
+        <v>5</v>
+      </c>
+      <c r="K656" t="n">
+        <v>45</v>
+      </c>
+      <c r="L656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M656" t="n">
+        <v>14</v>
+      </c>
+      <c r="N656" t="inlineStr"/>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="inlineStr"/>
+      <c r="Q656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45750.28125</v>
+      </c>
+      <c r="B657" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C657" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D657" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E657" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H657" t="n">
+        <v>4</v>
+      </c>
+      <c r="I657" t="n">
+        <v>3</v>
+      </c>
+      <c r="J657" t="n">
+        <v>6</v>
+      </c>
+      <c r="K657" t="n">
+        <v>45</v>
+      </c>
+      <c r="L657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M657" t="n">
+        <v>14</v>
+      </c>
+      <c r="N657" t="inlineStr"/>
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="inlineStr"/>
+      <c r="Q657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45750.32291666666</v>
+      </c>
+      <c r="B658" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C658" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D658" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E658" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F658" t="n">
+        <v>3005</v>
+      </c>
+      <c r="G658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H658" t="n">
+        <v>4</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3</v>
+      </c>
+      <c r="J658" t="n">
+        <v>7</v>
+      </c>
+      <c r="K658" t="n">
+        <v>45</v>
+      </c>
+      <c r="L658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M658" t="n">
+        <v>14</v>
+      </c>
+      <c r="N658" t="inlineStr"/>
+      <c r="O658" t="inlineStr"/>
+      <c r="P658" t="inlineStr"/>
+      <c r="Q658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45750.36458333334</v>
+      </c>
+      <c r="B659" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C659" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D659" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E659" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F659" t="n">
+        <v>3821</v>
+      </c>
+      <c r="G659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H659" t="n">
+        <v>4</v>
+      </c>
+      <c r="I659" t="n">
+        <v>3</v>
+      </c>
+      <c r="J659" t="n">
+        <v>8</v>
+      </c>
+      <c r="K659" t="n">
+        <v>45</v>
+      </c>
+      <c r="L659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M659" t="n">
+        <v>14</v>
+      </c>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr"/>
+      <c r="P659" t="inlineStr"/>
+      <c r="Q659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45750.40625</v>
+      </c>
+      <c r="B660" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C660" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="D660" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="E660" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F660" t="n">
+        <v>177</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H660" t="n">
+        <v>4</v>
+      </c>
+      <c r="I660" t="n">
+        <v>3</v>
+      </c>
+      <c r="J660" t="n">
+        <v>9</v>
+      </c>
+      <c r="K660" t="n">
+        <v>45</v>
+      </c>
+      <c r="L660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M660" t="n">
+        <v>14</v>
+      </c>
+      <c r="N660" t="inlineStr"/>
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="inlineStr"/>
+      <c r="Q660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45751.15625</v>
+      </c>
+      <c r="B661" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C661" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D661" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E661" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F661" t="n">
+        <v>8515</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H661" t="n">
+        <v>4</v>
+      </c>
+      <c r="I661" t="n">
+        <v>4</v>
+      </c>
+      <c r="J661" t="n">
+        <v>3</v>
+      </c>
+      <c r="K661" t="n">
+        <v>45</v>
+      </c>
+      <c r="L661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M661" t="n">
+        <v>14</v>
+      </c>
+      <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="inlineStr"/>
+      <c r="Q661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45751.19791666666</v>
+      </c>
+      <c r="B662" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C662" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D662" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E662" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F662" t="n">
+        <v>4445</v>
+      </c>
+      <c r="G662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H662" t="n">
+        <v>4</v>
+      </c>
+      <c r="I662" t="n">
+        <v>4</v>
+      </c>
+      <c r="J662" t="n">
+        <v>4</v>
+      </c>
+      <c r="K662" t="n">
+        <v>45</v>
+      </c>
+      <c r="L662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M662" t="n">
+        <v>14</v>
+      </c>
+      <c r="N662" t="inlineStr"/>
+      <c r="O662" t="inlineStr"/>
+      <c r="P662" t="inlineStr"/>
+      <c r="Q662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45751.23958333334</v>
+      </c>
+      <c r="B663" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C663" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D663" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E663" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1449</v>
+      </c>
+      <c r="G663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H663" t="n">
+        <v>4</v>
+      </c>
+      <c r="I663" t="n">
+        <v>4</v>
+      </c>
+      <c r="J663" t="n">
+        <v>5</v>
+      </c>
+      <c r="K663" t="n">
+        <v>45</v>
+      </c>
+      <c r="L663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M663" t="n">
+        <v>14</v>
+      </c>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="inlineStr"/>
+      <c r="Q663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45751.28125</v>
+      </c>
+      <c r="B664" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C664" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D664" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E664" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1550</v>
+      </c>
+      <c r="G664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H664" t="n">
+        <v>4</v>
+      </c>
+      <c r="I664" t="n">
+        <v>4</v>
+      </c>
+      <c r="J664" t="n">
+        <v>6</v>
+      </c>
+      <c r="K664" t="n">
+        <v>45</v>
+      </c>
+      <c r="L664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M664" t="n">
+        <v>14</v>
+      </c>
+      <c r="N664" t="inlineStr"/>
+      <c r="O664" t="inlineStr"/>
+      <c r="P664" t="inlineStr"/>
+      <c r="Q664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45751.32291666666</v>
+      </c>
+      <c r="B665" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C665" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D665" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E665" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1235</v>
+      </c>
+      <c r="G665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H665" t="n">
+        <v>4</v>
+      </c>
+      <c r="I665" t="n">
+        <v>4</v>
+      </c>
+      <c r="J665" t="n">
+        <v>7</v>
+      </c>
+      <c r="K665" t="n">
+        <v>45</v>
+      </c>
+      <c r="L665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M665" t="n">
+        <v>14</v>
+      </c>
+      <c r="N665" t="inlineStr"/>
+      <c r="O665" t="inlineStr"/>
+      <c r="P665" t="inlineStr"/>
+      <c r="Q665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45751.36458333334</v>
+      </c>
+      <c r="B666" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C666" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D666" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E666" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F666" t="n">
+        <v>652</v>
+      </c>
+      <c r="G666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H666" t="n">
+        <v>4</v>
+      </c>
+      <c r="I666" t="n">
+        <v>4</v>
+      </c>
+      <c r="J666" t="n">
+        <v>8</v>
+      </c>
+      <c r="K666" t="n">
+        <v>45</v>
+      </c>
+      <c r="L666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M666" t="n">
+        <v>14</v>
+      </c>
+      <c r="N666" t="inlineStr"/>
+      <c r="O666" t="inlineStr"/>
+      <c r="P666" t="inlineStr"/>
+      <c r="Q666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45751.40625</v>
+      </c>
+      <c r="B667" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="C667" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="D667" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E667" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1203</v>
+      </c>
+      <c r="G667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H667" t="n">
+        <v>4</v>
+      </c>
+      <c r="I667" t="n">
+        <v>4</v>
+      </c>
+      <c r="J667" t="n">
+        <v>9</v>
+      </c>
+      <c r="K667" t="n">
+        <v>45</v>
+      </c>
+      <c r="L667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M667" t="n">
+        <v>14</v>
+      </c>
+      <c r="N667" t="inlineStr"/>
+      <c r="O667" t="inlineStr"/>
+      <c r="P667" t="inlineStr"/>
+      <c r="Q667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45754.15625</v>
+      </c>
+      <c r="B668" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C668" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D668" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E668" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F668" t="n">
+        <v>3949</v>
+      </c>
+      <c r="G668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H668" t="n">
+        <v>4</v>
+      </c>
+      <c r="I668" t="n">
+        <v>7</v>
+      </c>
+      <c r="J668" t="n">
+        <v>3</v>
+      </c>
+      <c r="K668" t="n">
+        <v>45</v>
+      </c>
+      <c r="L668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M668" t="n">
+        <v>15</v>
+      </c>
+      <c r="N668" t="inlineStr"/>
+      <c r="O668" t="inlineStr"/>
+      <c r="P668" t="inlineStr"/>
+      <c r="Q668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45754.19791666666</v>
+      </c>
+      <c r="B669" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C669" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D669" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E669" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1404</v>
+      </c>
+      <c r="G669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H669" t="n">
+        <v>4</v>
+      </c>
+      <c r="I669" t="n">
+        <v>7</v>
+      </c>
+      <c r="J669" t="n">
+        <v>4</v>
+      </c>
+      <c r="K669" t="n">
+        <v>45</v>
+      </c>
+      <c r="L669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M669" t="n">
+        <v>15</v>
+      </c>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="inlineStr"/>
+      <c r="Q669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45754.23958333334</v>
+      </c>
+      <c r="B670" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C670" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D670" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E670" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F670" t="n">
+        <v>3068</v>
+      </c>
+      <c r="G670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H670" t="n">
+        <v>4</v>
+      </c>
+      <c r="I670" t="n">
+        <v>7</v>
+      </c>
+      <c r="J670" t="n">
+        <v>5</v>
+      </c>
+      <c r="K670" t="n">
+        <v>45</v>
+      </c>
+      <c r="L670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M670" t="n">
+        <v>15</v>
+      </c>
+      <c r="N670" t="inlineStr"/>
+      <c r="O670" t="inlineStr"/>
+      <c r="P670" t="inlineStr"/>
+      <c r="Q670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45754.28125</v>
+      </c>
+      <c r="B671" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C671" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D671" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E671" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F671" t="n">
+        <v>559</v>
+      </c>
+      <c r="G671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H671" t="n">
+        <v>4</v>
+      </c>
+      <c r="I671" t="n">
+        <v>7</v>
+      </c>
+      <c r="J671" t="n">
+        <v>6</v>
+      </c>
+      <c r="K671" t="n">
+        <v>45</v>
+      </c>
+      <c r="L671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M671" t="n">
+        <v>15</v>
+      </c>
+      <c r="N671" t="inlineStr"/>
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="inlineStr"/>
+      <c r="Q671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45754.32291666666</v>
+      </c>
+      <c r="B672" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C672" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D672" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E672" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F672" t="n">
+        <v>2795</v>
+      </c>
+      <c r="G672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H672" t="n">
+        <v>4</v>
+      </c>
+      <c r="I672" t="n">
+        <v>7</v>
+      </c>
+      <c r="J672" t="n">
+        <v>7</v>
+      </c>
+      <c r="K672" t="n">
+        <v>45</v>
+      </c>
+      <c r="L672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M672" t="n">
+        <v>15</v>
+      </c>
+      <c r="N672" t="inlineStr"/>
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="inlineStr"/>
+      <c r="Q672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45754.36458333334</v>
+      </c>
+      <c r="B673" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C673" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D673" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E673" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F673" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H673" t="n">
+        <v>4</v>
+      </c>
+      <c r="I673" t="n">
+        <v>7</v>
+      </c>
+      <c r="J673" t="n">
+        <v>8</v>
+      </c>
+      <c r="K673" t="n">
+        <v>45</v>
+      </c>
+      <c r="L673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M673" t="n">
+        <v>15</v>
+      </c>
+      <c r="N673" t="inlineStr"/>
+      <c r="O673" t="inlineStr"/>
+      <c r="P673" t="inlineStr"/>
+      <c r="Q673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45754.40625</v>
+      </c>
+      <c r="B674" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C674" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="D674" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="E674" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="F674" t="n">
+        <v>7817</v>
+      </c>
+      <c r="G674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H674" t="n">
+        <v>4</v>
+      </c>
+      <c r="I674" t="n">
+        <v>7</v>
+      </c>
+      <c r="J674" t="n">
+        <v>9</v>
+      </c>
+      <c r="K674" t="n">
+        <v>45</v>
+      </c>
+      <c r="L674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M674" t="n">
+        <v>15</v>
+      </c>
+      <c r="N674" t="inlineStr"/>
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="inlineStr"/>
+      <c r="Q674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45755.15625</v>
+      </c>
+      <c r="B675" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="C675" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D675" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="E675" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F675" t="n">
+        <v>83914</v>
+      </c>
+      <c r="G675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H675" t="n">
+        <v>4</v>
+      </c>
+      <c r="I675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J675" t="n">
+        <v>3</v>
+      </c>
+      <c r="K675" t="n">
+        <v>45</v>
+      </c>
+      <c r="L675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M675" t="n">
+        <v>15</v>
+      </c>
+      <c r="N675" t="inlineStr"/>
+      <c r="O675" t="inlineStr"/>
+      <c r="P675" t="inlineStr"/>
+      <c r="Q675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45755.19791666666</v>
+      </c>
+      <c r="B676" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C676" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D676" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E676" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1117</v>
+      </c>
+      <c r="G676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H676" t="n">
+        <v>4</v>
+      </c>
+      <c r="I676" t="n">
+        <v>8</v>
+      </c>
+      <c r="J676" t="n">
+        <v>4</v>
+      </c>
+      <c r="K676" t="n">
+        <v>45</v>
+      </c>
+      <c r="L676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M676" t="n">
+        <v>15</v>
+      </c>
+      <c r="N676" t="inlineStr"/>
+      <c r="O676" t="inlineStr"/>
+      <c r="P676" t="inlineStr"/>
+      <c r="Q676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45755.23958333334</v>
+      </c>
+      <c r="B677" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C677" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D677" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E677" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F677" t="n">
+        <v>53</v>
+      </c>
+      <c r="G677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H677" t="n">
+        <v>4</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8</v>
+      </c>
+      <c r="J677" t="n">
+        <v>5</v>
+      </c>
+      <c r="K677" t="n">
+        <v>45</v>
+      </c>
+      <c r="L677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M677" t="n">
+        <v>15</v>
+      </c>
+      <c r="N677" t="inlineStr"/>
+      <c r="O677" t="inlineStr"/>
+      <c r="P677" t="inlineStr"/>
+      <c r="Q677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45755.28125</v>
+      </c>
+      <c r="B678" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C678" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D678" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E678" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F678" t="n">
+        <v>75</v>
+      </c>
+      <c r="G678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H678" t="n">
+        <v>4</v>
+      </c>
+      <c r="I678" t="n">
+        <v>8</v>
+      </c>
+      <c r="J678" t="n">
+        <v>6</v>
+      </c>
+      <c r="K678" t="n">
+        <v>45</v>
+      </c>
+      <c r="L678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M678" t="n">
+        <v>15</v>
+      </c>
+      <c r="N678" t="inlineStr"/>
+      <c r="O678" t="inlineStr"/>
+      <c r="P678" t="inlineStr"/>
+      <c r="Q678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45755.32291666666</v>
+      </c>
+      <c r="B679" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C679" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D679" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E679" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F679" t="n">
+        <v>218</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H679" t="n">
+        <v>4</v>
+      </c>
+      <c r="I679" t="n">
+        <v>8</v>
+      </c>
+      <c r="J679" t="n">
+        <v>7</v>
+      </c>
+      <c r="K679" t="n">
+        <v>45</v>
+      </c>
+      <c r="L679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M679" t="n">
+        <v>15</v>
+      </c>
+      <c r="N679" t="inlineStr"/>
+      <c r="O679" t="inlineStr"/>
+      <c r="P679" t="inlineStr"/>
+      <c r="Q679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45755.36458333334</v>
+      </c>
+      <c r="B680" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C680" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D680" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E680" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1794</v>
+      </c>
+      <c r="G680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H680" t="n">
+        <v>4</v>
+      </c>
+      <c r="I680" t="n">
+        <v>8</v>
+      </c>
+      <c r="J680" t="n">
+        <v>8</v>
+      </c>
+      <c r="K680" t="n">
+        <v>45</v>
+      </c>
+      <c r="L680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M680" t="n">
+        <v>15</v>
+      </c>
+      <c r="N680" t="inlineStr"/>
+      <c r="O680" t="inlineStr"/>
+      <c r="P680" t="inlineStr"/>
+      <c r="Q680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45755.40625</v>
+      </c>
+      <c r="B681" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="C681" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="D681" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="E681" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F681" t="n">
+        <v>640</v>
+      </c>
+      <c r="G681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H681" t="n">
+        <v>4</v>
+      </c>
+      <c r="I681" t="n">
+        <v>8</v>
+      </c>
+      <c r="J681" t="n">
+        <v>9</v>
+      </c>
+      <c r="K681" t="n">
+        <v>45</v>
+      </c>
+      <c r="L681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M681" t="n">
+        <v>15</v>
+      </c>
+      <c r="N681" t="inlineStr"/>
+      <c r="O681" t="inlineStr"/>
+      <c r="P681" t="inlineStr"/>
+      <c r="Q681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45756.15625</v>
+      </c>
+      <c r="B682" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="C682" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="D682" t="n">
+        <v>19.20999908447266</v>
+      </c>
+      <c r="E682" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="F682" t="n">
+        <v>87250</v>
+      </c>
+      <c r="G682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H682" t="n">
+        <v>4</v>
+      </c>
+      <c r="I682" t="n">
+        <v>9</v>
+      </c>
+      <c r="J682" t="n">
+        <v>3</v>
+      </c>
+      <c r="K682" t="n">
+        <v>45</v>
+      </c>
+      <c r="L682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M682" t="n">
+        <v>15</v>
+      </c>
+      <c r="N682" t="inlineStr"/>
+      <c r="O682" t="inlineStr"/>
+      <c r="P682" t="inlineStr"/>
+      <c r="Q682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45756.19791666666</v>
+      </c>
+      <c r="B683" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="C683" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="D683" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="E683" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="F683" t="n">
+        <v>16674</v>
+      </c>
+      <c r="G683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H683" t="n">
+        <v>4</v>
+      </c>
+      <c r="I683" t="n">
+        <v>9</v>
+      </c>
+      <c r="J683" t="n">
+        <v>4</v>
+      </c>
+      <c r="K683" t="n">
+        <v>45</v>
+      </c>
+      <c r="L683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M683" t="n">
+        <v>15</v>
+      </c>
+      <c r="N683" t="inlineStr"/>
+      <c r="O683" t="inlineStr"/>
+      <c r="P683" t="inlineStr"/>
+      <c r="Q683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45756.23958333334</v>
+      </c>
+      <c r="B684" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="C684" t="n">
+        <v>20.04999923706055</v>
+      </c>
+      <c r="D684" t="n">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="E684" t="n">
+        <v>19.95000076293945</v>
+      </c>
+      <c r="F684" t="n">
+        <v>5013</v>
+      </c>
+      <c r="G684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H684" t="n">
+        <v>4</v>
+      </c>
+      <c r="I684" t="n">
+        <v>9</v>
+      </c>
+      <c r="J684" t="n">
+        <v>5</v>
+      </c>
+      <c r="K684" t="n">
+        <v>45</v>
+      </c>
+      <c r="L684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M684" t="n">
+        <v>15</v>
+      </c>
+      <c r="N684" t="inlineStr"/>
+      <c r="O684" t="inlineStr"/>
+      <c r="P684" t="inlineStr"/>
+      <c r="Q684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45756.28125</v>
+      </c>
+      <c r="B685" t="n">
+        <v>19.95000076293945</v>
+      </c>
+      <c r="C685" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="D685" t="n">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="E685" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="F685" t="n">
+        <v>12293</v>
+      </c>
+      <c r="G685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H685" t="n">
+        <v>4</v>
+      </c>
+      <c r="I685" t="n">
+        <v>9</v>
+      </c>
+      <c r="J685" t="n">
+        <v>6</v>
+      </c>
+      <c r="K685" t="n">
+        <v>45</v>
+      </c>
+      <c r="L685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M685" t="n">
+        <v>15</v>
+      </c>
+      <c r="N685" t="inlineStr"/>
+      <c r="O685" t="inlineStr"/>
+      <c r="P685" t="inlineStr"/>
+      <c r="Q685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45756.32291666666</v>
+      </c>
+      <c r="B686" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="C686" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="D686" t="n">
+        <v>19.93000030517578</v>
+      </c>
+      <c r="E686" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="F686" t="n">
+        <v>2292</v>
+      </c>
+      <c r="G686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H686" t="n">
+        <v>4</v>
+      </c>
+      <c r="I686" t="n">
+        <v>9</v>
+      </c>
+      <c r="J686" t="n">
+        <v>7</v>
+      </c>
+      <c r="K686" t="n">
+        <v>45</v>
+      </c>
+      <c r="L686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M686" t="n">
+        <v>15</v>
+      </c>
+      <c r="N686" t="inlineStr"/>
+      <c r="O686" t="inlineStr"/>
+      <c r="P686" t="inlineStr"/>
+      <c r="Q686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45756.36458333334</v>
+      </c>
+      <c r="B687" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="C687" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="D687" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="E687" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="F687" t="n">
+        <v>315</v>
+      </c>
+      <c r="G687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H687" t="n">
+        <v>4</v>
+      </c>
+      <c r="I687" t="n">
+        <v>9</v>
+      </c>
+      <c r="J687" t="n">
+        <v>8</v>
+      </c>
+      <c r="K687" t="n">
+        <v>45</v>
+      </c>
+      <c r="L687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M687" t="n">
+        <v>15</v>
+      </c>
+      <c r="N687" t="inlineStr"/>
+      <c r="O687" t="inlineStr"/>
+      <c r="P687" t="inlineStr"/>
+      <c r="Q687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45758.15625</v>
+      </c>
+      <c r="B688" t="n">
+        <v>21.04000091552734</v>
+      </c>
+      <c r="C688" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D688" t="n">
+        <v>21</v>
+      </c>
+      <c r="E688" t="n">
+        <v>21.05999946594238</v>
+      </c>
+      <c r="F688" t="n">
+        <v>25322</v>
+      </c>
+      <c r="G688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H688" t="n">
+        <v>4</v>
+      </c>
+      <c r="I688" t="n">
+        <v>11</v>
+      </c>
+      <c r="J688" t="n">
+        <v>3</v>
+      </c>
+      <c r="K688" t="n">
+        <v>45</v>
+      </c>
+      <c r="L688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M688" t="n">
+        <v>15</v>
+      </c>
+      <c r="N688" t="inlineStr"/>
+      <c r="O688" t="inlineStr"/>
+      <c r="P688" t="inlineStr"/>
+      <c r="Q688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45758.19791666666</v>
+      </c>
+      <c r="B689" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C689" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D689" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E689" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F689" t="n">
+        <v>476</v>
+      </c>
+      <c r="G689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H689" t="n">
+        <v>4</v>
+      </c>
+      <c r="I689" t="n">
+        <v>11</v>
+      </c>
+      <c r="J689" t="n">
+        <v>4</v>
+      </c>
+      <c r="K689" t="n">
+        <v>45</v>
+      </c>
+      <c r="L689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M689" t="n">
+        <v>15</v>
+      </c>
+      <c r="N689" t="inlineStr"/>
+      <c r="O689" t="inlineStr"/>
+      <c r="P689" t="inlineStr"/>
+      <c r="Q689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45758.23958333334</v>
+      </c>
+      <c r="B690" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C690" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D690" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E690" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F690" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H690" t="n">
+        <v>4</v>
+      </c>
+      <c r="I690" t="n">
+        <v>11</v>
+      </c>
+      <c r="J690" t="n">
+        <v>5</v>
+      </c>
+      <c r="K690" t="n">
+        <v>45</v>
+      </c>
+      <c r="L690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M690" t="n">
+        <v>15</v>
+      </c>
+      <c r="N690" t="inlineStr"/>
+      <c r="O690" t="inlineStr"/>
+      <c r="P690" t="inlineStr"/>
+      <c r="Q690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45758.28125</v>
+      </c>
+      <c r="B691" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C691" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D691" t="n">
+        <v>21</v>
+      </c>
+      <c r="E691" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F691" t="n">
+        <v>15113</v>
+      </c>
+      <c r="G691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H691" t="n">
+        <v>4</v>
+      </c>
+      <c r="I691" t="n">
+        <v>11</v>
+      </c>
+      <c r="J691" t="n">
+        <v>6</v>
+      </c>
+      <c r="K691" t="n">
+        <v>45</v>
+      </c>
+      <c r="L691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M691" t="n">
+        <v>15</v>
+      </c>
+      <c r="N691" t="inlineStr"/>
+      <c r="O691" t="inlineStr"/>
+      <c r="P691" t="inlineStr"/>
+      <c r="Q691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45758.32291666666</v>
+      </c>
+      <c r="B692" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C692" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D692" t="n">
+        <v>21</v>
+      </c>
+      <c r="E692" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F692" t="n">
+        <v>7938</v>
+      </c>
+      <c r="G692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H692" t="n">
+        <v>4</v>
+      </c>
+      <c r="I692" t="n">
+        <v>11</v>
+      </c>
+      <c r="J692" t="n">
+        <v>7</v>
+      </c>
+      <c r="K692" t="n">
+        <v>45</v>
+      </c>
+      <c r="L692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M692" t="n">
+        <v>15</v>
+      </c>
+      <c r="N692" t="inlineStr"/>
+      <c r="O692" t="inlineStr"/>
+      <c r="P692" t="inlineStr"/>
+      <c r="Q692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45758.36458333334</v>
+      </c>
+      <c r="B693" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C693" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D693" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E693" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H693" t="n">
+        <v>4</v>
+      </c>
+      <c r="I693" t="n">
+        <v>11</v>
+      </c>
+      <c r="J693" t="n">
+        <v>8</v>
+      </c>
+      <c r="K693" t="n">
+        <v>45</v>
+      </c>
+      <c r="L693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M693" t="n">
+        <v>15</v>
+      </c>
+      <c r="N693" t="inlineStr"/>
+      <c r="O693" t="inlineStr"/>
+      <c r="P693" t="inlineStr"/>
+      <c r="Q693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45758.40625</v>
+      </c>
+      <c r="B694" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C694" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D694" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E694" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F694" t="n">
+        <v>39</v>
+      </c>
+      <c r="G694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H694" t="n">
+        <v>4</v>
+      </c>
+      <c r="I694" t="n">
+        <v>11</v>
+      </c>
+      <c r="J694" t="n">
+        <v>9</v>
+      </c>
+      <c r="K694" t="n">
+        <v>45</v>
+      </c>
+      <c r="L694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M694" t="n">
+        <v>15</v>
+      </c>
+      <c r="N694" t="inlineStr"/>
+      <c r="O694" t="inlineStr"/>
+      <c r="P694" t="inlineStr"/>
+      <c r="Q694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45762.15625</v>
+      </c>
+      <c r="B695" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="C695" t="n">
+        <v>22.11000061035156</v>
+      </c>
+      <c r="D695" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E695" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="F695" t="n">
+        <v>32881</v>
+      </c>
+      <c r="G695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H695" t="n">
+        <v>4</v>
+      </c>
+      <c r="I695" t="n">
+        <v>15</v>
+      </c>
+      <c r="J695" t="n">
+        <v>3</v>
+      </c>
+      <c r="K695" t="n">
+        <v>45</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M695" t="n">
+        <v>16</v>
+      </c>
+      <c r="N695" t="inlineStr"/>
+      <c r="O695" t="inlineStr"/>
+      <c r="P695" t="inlineStr"/>
+      <c r="Q695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45762.19791666666</v>
+      </c>
+      <c r="B696" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="C696" t="n">
+        <v>22.09000015258789</v>
+      </c>
+      <c r="D696" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="E696" t="n">
+        <v>22</v>
+      </c>
+      <c r="F696" t="n">
+        <v>17371</v>
+      </c>
+      <c r="G696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H696" t="n">
+        <v>4</v>
+      </c>
+      <c r="I696" t="n">
+        <v>15</v>
+      </c>
+      <c r="J696" t="n">
+        <v>4</v>
+      </c>
+      <c r="K696" t="n">
+        <v>45</v>
+      </c>
+      <c r="L696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M696" t="n">
+        <v>16</v>
+      </c>
+      <c r="N696" t="inlineStr"/>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
+      <c r="Q696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45762.23958333334</v>
+      </c>
+      <c r="B697" t="n">
+        <v>22</v>
+      </c>
+      <c r="C697" t="n">
+        <v>22.06999969482422</v>
+      </c>
+      <c r="D697" t="n">
+        <v>21.15999984741211</v>
+      </c>
+      <c r="E697" t="n">
+        <v>22.06999969482422</v>
+      </c>
+      <c r="F697" t="n">
+        <v>10374</v>
+      </c>
+      <c r="G697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H697" t="n">
+        <v>4</v>
+      </c>
+      <c r="I697" t="n">
+        <v>15</v>
+      </c>
+      <c r="J697" t="n">
+        <v>5</v>
+      </c>
+      <c r="K697" t="n">
+        <v>45</v>
+      </c>
+      <c r="L697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" t="n">
+        <v>16</v>
+      </c>
+      <c r="N697" t="inlineStr"/>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
+      <c r="Q697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45762.28125</v>
+      </c>
+      <c r="B698" t="n">
+        <v>22.06999969482422</v>
+      </c>
+      <c r="C698" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="D698" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="E698" t="n">
+        <v>22</v>
+      </c>
+      <c r="F698" t="n">
+        <v>20466</v>
+      </c>
+      <c r="G698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H698" t="n">
+        <v>4</v>
+      </c>
+      <c r="I698" t="n">
+        <v>15</v>
+      </c>
+      <c r="J698" t="n">
+        <v>6</v>
+      </c>
+      <c r="K698" t="n">
+        <v>45</v>
+      </c>
+      <c r="L698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M698" t="n">
+        <v>16</v>
+      </c>
+      <c r="N698" t="inlineStr"/>
+      <c r="O698" t="inlineStr"/>
+      <c r="P698" t="inlineStr"/>
+      <c r="Q698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45762.32291666666</v>
+      </c>
+      <c r="B699" t="n">
+        <v>22</v>
+      </c>
+      <c r="C699" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="D699" t="n">
+        <v>21.45000076293945</v>
+      </c>
+      <c r="E699" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="F699" t="n">
+        <v>9108</v>
+      </c>
+      <c r="G699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H699" t="n">
+        <v>4</v>
+      </c>
+      <c r="I699" t="n">
+        <v>15</v>
+      </c>
+      <c r="J699" t="n">
+        <v>7</v>
+      </c>
+      <c r="K699" t="n">
+        <v>45</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M699" t="n">
+        <v>16</v>
+      </c>
+      <c r="N699" t="inlineStr"/>
+      <c r="O699" t="inlineStr"/>
+      <c r="P699" t="inlineStr"/>
+      <c r="Q699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45762.36458333334</v>
+      </c>
+      <c r="B700" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="C700" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="D700" t="n">
+        <v>22</v>
+      </c>
+      <c r="E700" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="F700" t="n">
+        <v>5619</v>
+      </c>
+      <c r="G700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H700" t="n">
+        <v>4</v>
+      </c>
+      <c r="I700" t="n">
+        <v>15</v>
+      </c>
+      <c r="J700" t="n">
+        <v>8</v>
+      </c>
+      <c r="K700" t="n">
+        <v>45</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M700" t="n">
+        <v>16</v>
+      </c>
+      <c r="N700" t="inlineStr"/>
+      <c r="O700" t="inlineStr"/>
+      <c r="P700" t="inlineStr"/>
+      <c r="Q700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45762.40625</v>
+      </c>
+      <c r="B701" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="C701" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="D701" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="E701" t="n">
+        <v>22.1200008392334</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1945</v>
+      </c>
+      <c r="G701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H701" t="n">
+        <v>4</v>
+      </c>
+      <c r="I701" t="n">
+        <v>15</v>
+      </c>
+      <c r="J701" t="n">
+        <v>9</v>
+      </c>
+      <c r="K701" t="n">
+        <v>45</v>
+      </c>
+      <c r="L701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M701" t="n">
+        <v>16</v>
+      </c>
+      <c r="N701" t="inlineStr"/>
+      <c r="O701" t="inlineStr"/>
+      <c r="P701" t="inlineStr"/>
+      <c r="Q701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45763.15625</v>
+      </c>
+      <c r="B702" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="C702" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="D702" t="n">
+        <v>21.20999908447266</v>
+      </c>
+      <c r="E702" t="n">
+        <v>21.20999908447266</v>
+      </c>
+      <c r="F702" t="n">
+        <v>14804</v>
+      </c>
+      <c r="G702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H702" t="n">
+        <v>4</v>
+      </c>
+      <c r="I702" t="n">
+        <v>16</v>
+      </c>
+      <c r="J702" t="n">
+        <v>3</v>
+      </c>
+      <c r="K702" t="n">
+        <v>45</v>
+      </c>
+      <c r="L702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M702" t="n">
+        <v>16</v>
+      </c>
+      <c r="N702" t="inlineStr"/>
+      <c r="O702" t="inlineStr"/>
+      <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45763.19791666666</v>
+      </c>
+      <c r="B703" t="n">
+        <v>21.20999908447266</v>
+      </c>
+      <c r="C703" t="n">
+        <v>22.09000015258789</v>
+      </c>
+      <c r="D703" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E703" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F703" t="n">
+        <v>25203</v>
+      </c>
+      <c r="G703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H703" t="n">
+        <v>4</v>
+      </c>
+      <c r="I703" t="n">
+        <v>16</v>
+      </c>
+      <c r="J703" t="n">
+        <v>4</v>
+      </c>
+      <c r="K703" t="n">
+        <v>45</v>
+      </c>
+      <c r="L703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M703" t="n">
+        <v>16</v>
+      </c>
+      <c r="N703" t="inlineStr"/>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
+      <c r="Q703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45763.23958333334</v>
+      </c>
+      <c r="B704" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="C704" t="n">
+        <v>21.93000030517578</v>
+      </c>
+      <c r="D704" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E704" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="F704" t="n">
+        <v>4748</v>
+      </c>
+      <c r="G704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H704" t="n">
+        <v>4</v>
+      </c>
+      <c r="I704" t="n">
+        <v>16</v>
+      </c>
+      <c r="J704" t="n">
+        <v>5</v>
+      </c>
+      <c r="K704" t="n">
+        <v>45</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M704" t="n">
+        <v>16</v>
+      </c>
+      <c r="N704" t="inlineStr"/>
+      <c r="O704" t="inlineStr"/>
+      <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45763.28125</v>
+      </c>
+      <c r="B705" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="C705" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="D705" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E705" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1568</v>
+      </c>
+      <c r="G705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H705" t="n">
+        <v>4</v>
+      </c>
+      <c r="I705" t="n">
+        <v>16</v>
+      </c>
+      <c r="J705" t="n">
+        <v>6</v>
+      </c>
+      <c r="K705" t="n">
+        <v>45</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M705" t="n">
+        <v>16</v>
+      </c>
+      <c r="N705" t="inlineStr"/>
+      <c r="O705" t="inlineStr"/>
+      <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45763.32291666666</v>
+      </c>
+      <c r="B706" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="C706" t="n">
+        <v>21.38999938964844</v>
+      </c>
+      <c r="D706" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E706" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F706" t="n">
+        <v>12615</v>
+      </c>
+      <c r="G706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H706" t="n">
+        <v>4</v>
+      </c>
+      <c r="I706" t="n">
+        <v>16</v>
+      </c>
+      <c r="J706" t="n">
+        <v>7</v>
+      </c>
+      <c r="K706" t="n">
+        <v>45</v>
+      </c>
+      <c r="L706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M706" t="n">
+        <v>16</v>
+      </c>
+      <c r="N706" t="inlineStr"/>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="inlineStr"/>
+      <c r="Q706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45763.36458333334</v>
+      </c>
+      <c r="B707" t="n">
+        <v>21.04000091552734</v>
+      </c>
+      <c r="C707" t="n">
+        <v>21.38999938964844</v>
+      </c>
+      <c r="D707" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E707" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="F707" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H707" t="n">
+        <v>4</v>
+      </c>
+      <c r="I707" t="n">
+        <v>16</v>
+      </c>
+      <c r="J707" t="n">
+        <v>8</v>
+      </c>
+      <c r="K707" t="n">
+        <v>45</v>
+      </c>
+      <c r="L707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M707" t="n">
+        <v>16</v>
+      </c>
+      <c r="N707" t="inlineStr"/>
+      <c r="O707" t="inlineStr"/>
+      <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45763.40625</v>
+      </c>
+      <c r="B708" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="C708" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="D708" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E708" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F708" t="n">
+        <v>10344</v>
+      </c>
+      <c r="G708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H708" t="n">
+        <v>4</v>
+      </c>
+      <c r="I708" t="n">
+        <v>16</v>
+      </c>
+      <c r="J708" t="n">
+        <v>9</v>
+      </c>
+      <c r="K708" t="n">
+        <v>45</v>
+      </c>
+      <c r="L708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M708" t="n">
+        <v>16</v>
+      </c>
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45764.19791666666</v>
+      </c>
+      <c r="B709" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="C709" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="D709" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="E709" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0</v>
+      </c>
+      <c r="G709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H709" t="n">
+        <v>4</v>
+      </c>
+      <c r="I709" t="n">
+        <v>17</v>
+      </c>
+      <c r="J709" t="n">
+        <v>4</v>
+      </c>
+      <c r="K709" t="n">
+        <v>45</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M709" t="n">
+        <v>16</v>
+      </c>
+      <c r="N709" t="inlineStr"/>
+      <c r="O709" t="inlineStr"/>
+      <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45764.23958333334</v>
+      </c>
+      <c r="B710" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="C710" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="D710" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="E710" t="n">
+        <v>20.61000061035156</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1919</v>
+      </c>
+      <c r="G710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H710" t="n">
+        <v>4</v>
+      </c>
+      <c r="I710" t="n">
+        <v>17</v>
+      </c>
+      <c r="J710" t="n">
+        <v>5</v>
+      </c>
+      <c r="K710" t="n">
+        <v>45</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M710" t="n">
+        <v>16</v>
+      </c>
+      <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr"/>
+      <c r="P710" t="inlineStr"/>
+      <c r="Q710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45764.28125</v>
+      </c>
+      <c r="B711" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C711" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D711" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E711" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F711" t="n">
+        <v>4891</v>
+      </c>
+      <c r="G711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H711" t="n">
+        <v>4</v>
+      </c>
+      <c r="I711" t="n">
+        <v>17</v>
+      </c>
+      <c r="J711" t="n">
+        <v>6</v>
+      </c>
+      <c r="K711" t="n">
+        <v>45</v>
+      </c>
+      <c r="L711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M711" t="n">
+        <v>16</v>
+      </c>
+      <c r="N711" t="inlineStr"/>
+      <c r="O711" t="inlineStr"/>
+      <c r="P711" t="inlineStr"/>
+      <c r="Q711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45764.32291666666</v>
+      </c>
+      <c r="B712" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C712" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D712" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E712" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1980</v>
+      </c>
+      <c r="G712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H712" t="n">
+        <v>4</v>
+      </c>
+      <c r="I712" t="n">
+        <v>17</v>
+      </c>
+      <c r="J712" t="n">
+        <v>7</v>
+      </c>
+      <c r="K712" t="n">
+        <v>45</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M712" t="n">
+        <v>16</v>
+      </c>
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr"/>
+      <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45764.36458333334</v>
+      </c>
+      <c r="B713" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C713" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D713" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E713" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F713" t="n">
+        <v>3588</v>
+      </c>
+      <c r="G713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H713" t="n">
+        <v>4</v>
+      </c>
+      <c r="I713" t="n">
+        <v>17</v>
+      </c>
+      <c r="J713" t="n">
+        <v>8</v>
+      </c>
+      <c r="K713" t="n">
+        <v>45</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>16</v>
+      </c>
+      <c r="N713" t="inlineStr"/>
+      <c r="O713" t="inlineStr"/>
+      <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45764.40625</v>
+      </c>
+      <c r="B714" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C714" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="D714" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E714" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F714" t="n">
+        <v>974</v>
+      </c>
+      <c r="G714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H714" t="n">
+        <v>4</v>
+      </c>
+      <c r="I714" t="n">
+        <v>17</v>
+      </c>
+      <c r="J714" t="n">
+        <v>9</v>
+      </c>
+      <c r="K714" t="n">
+        <v>45</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>16</v>
+      </c>
+      <c r="N714" t="inlineStr"/>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
